--- a/5 Xloopup vs Vlookup/XLookup vs VLookup - Lookup Practice.xlsx
+++ b/5 Xloopup vs Vlookup/XLookup vs VLookup - Lookup Practice.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Analyst Builder\9.0 Excel for Data Analysis\6. Xlookup vs Vlookup\Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4879da3f5c650214/Desktop/Excel-for-Data-Analysis - Copy/5 Xloopup vs Vlookup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21A28125-0591-4858-8FF9-270E76113313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{21A28125-0591-4858-8FF9-270E76113313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80F9B85C-D6BE-4678-9004-CDF47E60C03F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{1D18D66A-899F-46FB-B35C-6C89F46BA025}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{1D18D66A-899F-46FB-B35C-6C89F46BA025}"/>
   </bookViews>
   <sheets>
     <sheet name="Students" sheetId="1" r:id="rId1"/>
@@ -2130,9 +2130,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2170,7 +2170,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2276,7 +2276,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2418,7 +2418,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2428,8 +2428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02BAD91F-468B-4111-8F5D-8F7393A2FCD6}">
   <dimension ref="A1:K293"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A262" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2460,7 +2460,10 @@
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
+      <c r="B2" s="9" t="str">
+        <f>VLOOKUP(B1,A6:K293,5)</f>
+        <v>Roger Sumner</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>654</v>
       </c>
@@ -2525,7 +2528,10 @@
       <c r="G6" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="10"/>
+      <c r="H6" s="10">
+        <f>_xlfn.XLOOKUP(G6,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>2700</v>
+      </c>
       <c r="I6" t="s">
         <v>15</v>
       </c>
@@ -2556,7 +2562,10 @@
       <c r="G7" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="10"/>
+      <c r="H7" s="10">
+        <f>_xlfn.XLOOKUP(G7,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>3600</v>
+      </c>
       <c r="I7" t="s">
         <v>15</v>
       </c>
@@ -2587,7 +2596,10 @@
       <c r="G8" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="10"/>
+      <c r="H8" s="10">
+        <f>_xlfn.XLOOKUP(G8,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8600</v>
+      </c>
       <c r="I8" t="s">
         <v>27</v>
       </c>
@@ -2618,7 +2630,10 @@
       <c r="G9" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="10"/>
+      <c r="H9" s="10">
+        <f>_xlfn.XLOOKUP(G9,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>4600</v>
+      </c>
       <c r="I9" t="s">
         <v>34</v>
       </c>
@@ -2652,7 +2667,10 @@
       <c r="G10" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="10"/>
+      <c r="H10" s="10">
+        <f>_xlfn.XLOOKUP(G10,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>7400</v>
+      </c>
       <c r="I10" t="s">
         <v>40</v>
       </c>
@@ -2683,7 +2701,10 @@
       <c r="G11" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="10"/>
+      <c r="H11" s="10">
+        <f>_xlfn.XLOOKUP(G11,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8100</v>
+      </c>
       <c r="I11" t="s">
         <v>15</v>
       </c>
@@ -2714,7 +2735,10 @@
       <c r="G12" t="s">
         <v>50</v>
       </c>
-      <c r="H12" s="10"/>
+      <c r="H12" s="10">
+        <f>_xlfn.XLOOKUP(G12,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>7500</v>
+      </c>
       <c r="I12" t="s">
         <v>51</v>
       </c>
@@ -2748,7 +2772,10 @@
       <c r="G13" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="10"/>
+      <c r="H13" s="10">
+        <f>_xlfn.XLOOKUP(G13,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8600</v>
+      </c>
       <c r="I13" t="s">
         <v>15</v>
       </c>
@@ -2779,7 +2806,10 @@
       <c r="G14" t="s">
         <v>59</v>
       </c>
-      <c r="H14" s="10"/>
+      <c r="H14" s="10">
+        <f>_xlfn.XLOOKUP(G14,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>6400</v>
+      </c>
       <c r="I14" t="s">
         <v>27</v>
       </c>
@@ -2810,7 +2840,10 @@
       <c r="G15" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="10"/>
+      <c r="H15" s="10">
+        <f>_xlfn.XLOOKUP(G15,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>7400</v>
+      </c>
       <c r="I15" t="s">
         <v>62</v>
       </c>
@@ -2841,7 +2874,10 @@
       <c r="G16" t="s">
         <v>67</v>
       </c>
-      <c r="H16" s="10"/>
+      <c r="H16" s="10">
+        <f>_xlfn.XLOOKUP(G16,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>2500</v>
+      </c>
       <c r="I16" t="s">
         <v>15</v>
       </c>
@@ -2872,7 +2908,10 @@
       <c r="G17" t="s">
         <v>71</v>
       </c>
-      <c r="H17" s="10"/>
+      <c r="H17" s="10">
+        <f>_xlfn.XLOOKUP(G17,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>5800</v>
+      </c>
       <c r="I17" t="s">
         <v>62</v>
       </c>
@@ -2903,7 +2942,10 @@
       <c r="G18" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="10"/>
+      <c r="H18" s="10">
+        <f>_xlfn.XLOOKUP(G18,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>7400</v>
+      </c>
       <c r="I18" t="s">
         <v>15</v>
       </c>
@@ -2934,7 +2976,10 @@
       <c r="G19" t="s">
         <v>78</v>
       </c>
-      <c r="H19" s="10"/>
+      <c r="H19" s="10">
+        <f>_xlfn.XLOOKUP(G19,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>5800</v>
+      </c>
       <c r="I19" t="s">
         <v>27</v>
       </c>
@@ -2965,7 +3010,10 @@
       <c r="G20" t="s">
         <v>82</v>
       </c>
-      <c r="H20" s="10"/>
+      <c r="H20" s="10">
+        <f>_xlfn.XLOOKUP(G20,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>4900</v>
+      </c>
       <c r="I20" t="s">
         <v>62</v>
       </c>
@@ -2999,7 +3047,10 @@
       <c r="G21" t="s">
         <v>78</v>
       </c>
-      <c r="H21" s="10"/>
+      <c r="H21" s="10">
+        <f>_xlfn.XLOOKUP(G21,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>5800</v>
+      </c>
       <c r="I21" t="s">
         <v>27</v>
       </c>
@@ -3030,7 +3081,10 @@
       <c r="G22" t="s">
         <v>45</v>
       </c>
-      <c r="H22" s="10"/>
+      <c r="H22" s="10">
+        <f>_xlfn.XLOOKUP(G22,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8100</v>
+      </c>
       <c r="I22" t="s">
         <v>62</v>
       </c>
@@ -3061,7 +3115,10 @@
       <c r="G23" t="s">
         <v>39</v>
       </c>
-      <c r="H23" s="10"/>
+      <c r="H23" s="10">
+        <f>_xlfn.XLOOKUP(G23,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>7400</v>
+      </c>
       <c r="I23" t="s">
         <v>62</v>
       </c>
@@ -3095,7 +3152,10 @@
       <c r="G24" t="s">
         <v>33</v>
       </c>
-      <c r="H24" s="10"/>
+      <c r="H24" s="10">
+        <f>_xlfn.XLOOKUP(G24,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>4600</v>
+      </c>
       <c r="I24" t="s">
         <v>62</v>
       </c>
@@ -3126,7 +3186,10 @@
       <c r="G25" t="s">
         <v>95</v>
       </c>
-      <c r="H25" s="10"/>
+      <c r="H25" s="10">
+        <f>_xlfn.XLOOKUP(G25,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>6000</v>
+      </c>
       <c r="I25" t="s">
         <v>62</v>
       </c>
@@ -3160,7 +3223,10 @@
       <c r="G26" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="10"/>
+      <c r="H26" s="10">
+        <f>_xlfn.XLOOKUP(G26,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>2700</v>
+      </c>
       <c r="I26" t="s">
         <v>62</v>
       </c>
@@ -3194,7 +3260,10 @@
       <c r="G27" t="s">
         <v>26</v>
       </c>
-      <c r="H27" s="10"/>
+      <c r="H27" s="10">
+        <f>_xlfn.XLOOKUP(G27,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8600</v>
+      </c>
       <c r="I27" t="s">
         <v>27</v>
       </c>
@@ -3228,7 +3297,10 @@
       <c r="G28" t="s">
         <v>106</v>
       </c>
-      <c r="H28" s="10"/>
+      <c r="H28" s="10">
+        <f>_xlfn.XLOOKUP(G28,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8500</v>
+      </c>
       <c r="I28" t="s">
         <v>62</v>
       </c>
@@ -3259,7 +3331,10 @@
       <c r="G29" t="s">
         <v>110</v>
       </c>
-      <c r="H29" s="10"/>
+      <c r="H29" s="10">
+        <f>_xlfn.XLOOKUP(G29,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>2400</v>
+      </c>
       <c r="I29" t="s">
         <v>15</v>
       </c>
@@ -3293,7 +3368,10 @@
       <c r="G30" t="s">
         <v>26</v>
       </c>
-      <c r="H30" s="10"/>
+      <c r="H30" s="10">
+        <f>_xlfn.XLOOKUP(G30,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8600</v>
+      </c>
       <c r="I30" t="s">
         <v>62</v>
       </c>
@@ -3327,7 +3405,10 @@
       <c r="G31" t="s">
         <v>110</v>
       </c>
-      <c r="H31" s="10"/>
+      <c r="H31" s="10">
+        <f>_xlfn.XLOOKUP(G31,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>2400</v>
+      </c>
       <c r="I31" t="s">
         <v>15</v>
       </c>
@@ -3361,7 +3442,10 @@
       <c r="G32" t="s">
         <v>82</v>
       </c>
-      <c r="H32" s="10"/>
+      <c r="H32" s="10">
+        <f>_xlfn.XLOOKUP(G32,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>4900</v>
+      </c>
       <c r="I32" t="s">
         <v>15</v>
       </c>
@@ -3392,7 +3476,10 @@
       <c r="G33" t="s">
         <v>39</v>
       </c>
-      <c r="H33" s="10"/>
+      <c r="H33" s="10">
+        <f>_xlfn.XLOOKUP(G33,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>7400</v>
+      </c>
       <c r="I33" t="s">
         <v>15</v>
       </c>
@@ -3426,7 +3513,10 @@
       <c r="G34" t="s">
         <v>33</v>
       </c>
-      <c r="H34" s="10"/>
+      <c r="H34" s="10">
+        <f>_xlfn.XLOOKUP(G34,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>4600</v>
+      </c>
       <c r="I34" t="s">
         <v>124</v>
       </c>
@@ -3460,7 +3550,10 @@
       <c r="G35" t="s">
         <v>26</v>
       </c>
-      <c r="H35" s="10"/>
+      <c r="H35" s="10">
+        <f>_xlfn.XLOOKUP(G35,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8600</v>
+      </c>
       <c r="I35" t="s">
         <v>27</v>
       </c>
@@ -3494,7 +3587,10 @@
       <c r="G36" t="s">
         <v>26</v>
       </c>
-      <c r="H36" s="10"/>
+      <c r="H36" s="10">
+        <f>_xlfn.XLOOKUP(G36,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8600</v>
+      </c>
       <c r="I36" t="s">
         <v>15</v>
       </c>
@@ -3528,7 +3624,10 @@
       <c r="G37" t="s">
         <v>134</v>
       </c>
-      <c r="H37" s="10"/>
+      <c r="H37" s="10">
+        <f>_xlfn.XLOOKUP(G37,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>4100</v>
+      </c>
       <c r="I37" t="s">
         <v>15</v>
       </c>
@@ -3562,7 +3661,10 @@
       <c r="G38" t="s">
         <v>78</v>
       </c>
-      <c r="H38" s="10"/>
+      <c r="H38" s="10">
+        <f>_xlfn.XLOOKUP(G38,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>5800</v>
+      </c>
       <c r="I38" t="s">
         <v>27</v>
       </c>
@@ -3596,7 +3698,10 @@
       <c r="G39" t="s">
         <v>82</v>
       </c>
-      <c r="H39" s="10"/>
+      <c r="H39" s="10">
+        <f>_xlfn.XLOOKUP(G39,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>4900</v>
+      </c>
       <c r="I39" t="s">
         <v>27</v>
       </c>
@@ -3630,7 +3735,10 @@
       <c r="G40" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="10"/>
+      <c r="H40" s="10">
+        <f>_xlfn.XLOOKUP(G40,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>2700</v>
+      </c>
       <c r="I40" t="s">
         <v>62</v>
       </c>
@@ -3664,7 +3772,10 @@
       <c r="G41" t="s">
         <v>26</v>
       </c>
-      <c r="H41" s="10"/>
+      <c r="H41" s="10">
+        <f>_xlfn.XLOOKUP(G41,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8600</v>
+      </c>
       <c r="I41" t="s">
         <v>34</v>
       </c>
@@ -3698,7 +3809,10 @@
       <c r="G42" t="s">
         <v>26</v>
       </c>
-      <c r="H42" s="10"/>
+      <c r="H42" s="10">
+        <f>_xlfn.XLOOKUP(G42,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8600</v>
+      </c>
       <c r="I42" t="s">
         <v>34</v>
       </c>
@@ -3732,7 +3846,10 @@
       <c r="G43" t="s">
         <v>67</v>
       </c>
-      <c r="H43" s="10"/>
+      <c r="H43" s="10">
+        <f>_xlfn.XLOOKUP(G43,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>2500</v>
+      </c>
       <c r="I43" t="s">
         <v>27</v>
       </c>
@@ -3766,7 +3883,10 @@
       <c r="G44" t="s">
         <v>26</v>
       </c>
-      <c r="H44" s="10"/>
+      <c r="H44" s="10">
+        <f>_xlfn.XLOOKUP(G44,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8600</v>
+      </c>
       <c r="I44" t="s">
         <v>15</v>
       </c>
@@ -3797,7 +3917,10 @@
       <c r="G45" t="s">
         <v>71</v>
       </c>
-      <c r="H45" s="10"/>
+      <c r="H45" s="10">
+        <f>_xlfn.XLOOKUP(G45,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>5800</v>
+      </c>
       <c r="I45" t="s">
         <v>27</v>
       </c>
@@ -3831,7 +3954,10 @@
       <c r="G46" t="s">
         <v>78</v>
       </c>
-      <c r="H46" s="10"/>
+      <c r="H46" s="10">
+        <f>_xlfn.XLOOKUP(G46,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>5800</v>
+      </c>
       <c r="I46" t="s">
         <v>15</v>
       </c>
@@ -3865,7 +3991,10 @@
       <c r="G47" t="s">
         <v>39</v>
       </c>
-      <c r="H47" s="10"/>
+      <c r="H47" s="10">
+        <f>_xlfn.XLOOKUP(G47,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>7400</v>
+      </c>
       <c r="I47" t="s">
         <v>27</v>
       </c>
@@ -3896,7 +4025,10 @@
       <c r="G48" t="s">
         <v>14</v>
       </c>
-      <c r="H48" s="10"/>
+      <c r="H48" s="10">
+        <f>_xlfn.XLOOKUP(G48,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>2700</v>
+      </c>
       <c r="I48" t="s">
         <v>15</v>
       </c>
@@ -3930,7 +4062,10 @@
       <c r="G49" t="s">
         <v>67</v>
       </c>
-      <c r="H49" s="10"/>
+      <c r="H49" s="10">
+        <f>_xlfn.XLOOKUP(G49,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>2500</v>
+      </c>
       <c r="I49" t="s">
         <v>62</v>
       </c>
@@ -3964,7 +4099,10 @@
       <c r="G50" t="s">
         <v>39</v>
       </c>
-      <c r="H50" s="10"/>
+      <c r="H50" s="10">
+        <f>_xlfn.XLOOKUP(G50,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>7400</v>
+      </c>
       <c r="I50" t="s">
         <v>15</v>
       </c>
@@ -3998,7 +4136,10 @@
       <c r="G51" t="s">
         <v>59</v>
       </c>
-      <c r="H51" s="10"/>
+      <c r="H51" s="10">
+        <f>_xlfn.XLOOKUP(G51,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>6400</v>
+      </c>
       <c r="I51" t="s">
         <v>27</v>
       </c>
@@ -4029,7 +4170,10 @@
       <c r="G52" t="s">
         <v>39</v>
       </c>
-      <c r="H52" s="10"/>
+      <c r="H52" s="10">
+        <f>_xlfn.XLOOKUP(G52,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>7400</v>
+      </c>
       <c r="I52" t="s">
         <v>27</v>
       </c>
@@ -4060,7 +4204,10 @@
       <c r="G53" t="s">
         <v>82</v>
       </c>
-      <c r="H53" s="10"/>
+      <c r="H53" s="10">
+        <f>_xlfn.XLOOKUP(G53,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>4900</v>
+      </c>
       <c r="I53" t="s">
         <v>62</v>
       </c>
@@ -4091,7 +4238,10 @@
       <c r="G54" t="s">
         <v>59</v>
       </c>
-      <c r="H54" s="10"/>
+      <c r="H54" s="10">
+        <f>_xlfn.XLOOKUP(G54,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>6400</v>
+      </c>
       <c r="I54" t="s">
         <v>27</v>
       </c>
@@ -4125,7 +4275,10 @@
       <c r="G55" t="s">
         <v>78</v>
       </c>
-      <c r="H55" s="10"/>
+      <c r="H55" s="10">
+        <f>_xlfn.XLOOKUP(G55,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>5800</v>
+      </c>
       <c r="I55" t="s">
         <v>15</v>
       </c>
@@ -4159,7 +4312,10 @@
       <c r="G56" t="s">
         <v>26</v>
       </c>
-      <c r="H56" s="10"/>
+      <c r="H56" s="10">
+        <f>_xlfn.XLOOKUP(G56,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8600</v>
+      </c>
       <c r="I56" t="s">
         <v>15</v>
       </c>
@@ -4193,7 +4349,10 @@
       <c r="G57" t="s">
         <v>179</v>
       </c>
-      <c r="H57" s="10"/>
+      <c r="H57" s="10">
+        <f>_xlfn.XLOOKUP(G57,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>4200</v>
+      </c>
       <c r="I57" t="s">
         <v>62</v>
       </c>
@@ -4224,7 +4383,10 @@
       <c r="G58" t="s">
         <v>78</v>
       </c>
-      <c r="H58" s="10"/>
+      <c r="H58" s="10">
+        <f>_xlfn.XLOOKUP(G58,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>5800</v>
+      </c>
       <c r="I58" t="s">
         <v>62</v>
       </c>
@@ -4258,7 +4420,10 @@
       <c r="G59" t="s">
         <v>185</v>
       </c>
-      <c r="H59" s="10"/>
+      <c r="H59" s="10">
+        <f>_xlfn.XLOOKUP(G59,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>2300</v>
+      </c>
       <c r="I59" t="s">
         <v>62</v>
       </c>
@@ -4292,7 +4457,10 @@
       <c r="G60" t="s">
         <v>14</v>
       </c>
-      <c r="H60" s="10"/>
+      <c r="H60" s="10">
+        <f>_xlfn.XLOOKUP(G60,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>2700</v>
+      </c>
       <c r="I60" t="s">
         <v>62</v>
       </c>
@@ -4323,7 +4491,10 @@
       <c r="G61" t="s">
         <v>78</v>
       </c>
-      <c r="H61" s="10"/>
+      <c r="H61" s="10">
+        <f>_xlfn.XLOOKUP(G61,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>5800</v>
+      </c>
       <c r="I61" t="s">
         <v>27</v>
       </c>
@@ -4354,7 +4525,10 @@
       <c r="G62" t="s">
         <v>192</v>
       </c>
-      <c r="H62" s="10"/>
+      <c r="H62" s="10">
+        <f>_xlfn.XLOOKUP(G62,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>2100</v>
+      </c>
       <c r="I62" t="s">
         <v>62</v>
       </c>
@@ -4385,7 +4559,10 @@
       <c r="G63" t="s">
         <v>110</v>
       </c>
-      <c r="H63" s="10"/>
+      <c r="H63" s="10">
+        <f>_xlfn.XLOOKUP(G63,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>2400</v>
+      </c>
       <c r="I63" t="s">
         <v>27</v>
       </c>
@@ -4419,7 +4596,10 @@
       <c r="G64" t="s">
         <v>200</v>
       </c>
-      <c r="H64" s="10"/>
+      <c r="H64" s="10">
+        <f>_xlfn.XLOOKUP(G64,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>2000</v>
+      </c>
       <c r="I64" t="s">
         <v>27</v>
       </c>
@@ -4453,7 +4633,10 @@
       <c r="G65" t="s">
         <v>204</v>
       </c>
-      <c r="H65" s="10"/>
+      <c r="H65" s="10">
+        <f>_xlfn.XLOOKUP(G65,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>6800</v>
+      </c>
       <c r="I65" t="s">
         <v>51</v>
       </c>
@@ -4484,7 +4667,10 @@
       <c r="G66" t="s">
         <v>200</v>
       </c>
-      <c r="H66" s="10"/>
+      <c r="H66" s="10">
+        <f>_xlfn.XLOOKUP(G66,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>2000</v>
+      </c>
       <c r="I66" t="s">
         <v>15</v>
       </c>
@@ -4515,7 +4701,10 @@
       <c r="G67" t="s">
         <v>110</v>
       </c>
-      <c r="H67" s="10"/>
+      <c r="H67" s="10">
+        <f>_xlfn.XLOOKUP(G67,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>2400</v>
+      </c>
       <c r="I67" t="s">
         <v>34</v>
       </c>
@@ -4546,7 +4735,10 @@
       <c r="G68" t="s">
         <v>14</v>
       </c>
-      <c r="H68" s="10"/>
+      <c r="H68" s="10">
+        <f>_xlfn.XLOOKUP(G68,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>2700</v>
+      </c>
       <c r="I68" t="s">
         <v>27</v>
       </c>
@@ -4577,7 +4769,10 @@
       <c r="G69" t="s">
         <v>110</v>
       </c>
-      <c r="H69" s="10"/>
+      <c r="H69" s="10">
+        <f>_xlfn.XLOOKUP(G69,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>2400</v>
+      </c>
       <c r="I69" t="s">
         <v>62</v>
       </c>
@@ -4608,7 +4803,10 @@
       <c r="G70" t="s">
         <v>78</v>
       </c>
-      <c r="H70" s="10"/>
+      <c r="H70" s="10">
+        <f>_xlfn.XLOOKUP(G70,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>5800</v>
+      </c>
       <c r="I70" t="s">
         <v>27</v>
       </c>
@@ -4639,7 +4837,10 @@
       <c r="G71" t="s">
         <v>21</v>
       </c>
-      <c r="H71" s="10"/>
+      <c r="H71" s="10">
+        <f>_xlfn.XLOOKUP(G71,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>3600</v>
+      </c>
       <c r="I71" t="s">
         <v>62</v>
       </c>
@@ -4670,7 +4871,10 @@
       <c r="G72" t="s">
         <v>26</v>
       </c>
-      <c r="H72" s="10"/>
+      <c r="H72" s="10">
+        <f>_xlfn.XLOOKUP(G72,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8600</v>
+      </c>
       <c r="I72" t="s">
         <v>27</v>
       </c>
@@ -4701,7 +4905,10 @@
       <c r="G73" t="s">
         <v>39</v>
       </c>
-      <c r="H73" s="10"/>
+      <c r="H73" s="10">
+        <f>_xlfn.XLOOKUP(G73,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>7400</v>
+      </c>
       <c r="I73" t="s">
         <v>62</v>
       </c>
@@ -4735,7 +4942,10 @@
       <c r="G74" t="s">
         <v>59</v>
       </c>
-      <c r="H74" s="10"/>
+      <c r="H74" s="10">
+        <f>_xlfn.XLOOKUP(G74,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>6400</v>
+      </c>
       <c r="I74" t="s">
         <v>224</v>
       </c>
@@ -4766,7 +4976,10 @@
       <c r="G75" t="s">
         <v>21</v>
       </c>
-      <c r="H75" s="10"/>
+      <c r="H75" s="10">
+        <f>_xlfn.XLOOKUP(G75,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>3600</v>
+      </c>
       <c r="I75" t="s">
         <v>27</v>
       </c>
@@ -4797,7 +5010,10 @@
       <c r="G76" t="s">
         <v>78</v>
       </c>
-      <c r="H76" s="10"/>
+      <c r="H76" s="10">
+        <f>_xlfn.XLOOKUP(G76,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>5800</v>
+      </c>
       <c r="I76" t="s">
         <v>15</v>
       </c>
@@ -4831,7 +5047,10 @@
       <c r="G77" t="s">
         <v>110</v>
       </c>
-      <c r="H77" s="10"/>
+      <c r="H77" s="10">
+        <f>_xlfn.XLOOKUP(G77,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>2400</v>
+      </c>
       <c r="I77" t="s">
         <v>62</v>
       </c>
@@ -4865,7 +5084,10 @@
       <c r="G78" t="s">
         <v>235</v>
       </c>
-      <c r="H78" s="10"/>
+      <c r="H78" s="10">
+        <f>_xlfn.XLOOKUP(G78,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>3500</v>
+      </c>
       <c r="I78" t="s">
         <v>62</v>
       </c>
@@ -4899,7 +5121,10 @@
       <c r="G79" t="s">
         <v>110</v>
       </c>
-      <c r="H79" s="10"/>
+      <c r="H79" s="10">
+        <f>_xlfn.XLOOKUP(G79,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>2400</v>
+      </c>
       <c r="I79" t="s">
         <v>27</v>
       </c>
@@ -4930,7 +5155,10 @@
       <c r="G80" t="s">
         <v>59</v>
       </c>
-      <c r="H80" s="10"/>
+      <c r="H80" s="10">
+        <f>_xlfn.XLOOKUP(G80,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>6400</v>
+      </c>
       <c r="I80" t="s">
         <v>62</v>
       </c>
@@ -4961,7 +5189,10 @@
       <c r="G81" t="s">
         <v>14</v>
       </c>
-      <c r="H81" s="10"/>
+      <c r="H81" s="10">
+        <f>_xlfn.XLOOKUP(G81,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>2700</v>
+      </c>
       <c r="I81" t="s">
         <v>15</v>
       </c>
@@ -4995,7 +5226,10 @@
       <c r="G82" t="s">
         <v>245</v>
       </c>
-      <c r="H82" s="10"/>
+      <c r="H82" s="10">
+        <f>_xlfn.XLOOKUP(G82,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>2600</v>
+      </c>
       <c r="I82" t="s">
         <v>62</v>
       </c>
@@ -5029,7 +5263,10 @@
       <c r="G83" t="s">
         <v>45</v>
       </c>
-      <c r="H83" s="10"/>
+      <c r="H83" s="10">
+        <f>_xlfn.XLOOKUP(G83,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8100</v>
+      </c>
       <c r="I83" t="s">
         <v>15</v>
       </c>
@@ -5063,7 +5300,10 @@
       <c r="G84" t="s">
         <v>26</v>
       </c>
-      <c r="H84" s="10"/>
+      <c r="H84" s="10">
+        <f>_xlfn.XLOOKUP(G84,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8600</v>
+      </c>
       <c r="I84" t="s">
         <v>27</v>
       </c>
@@ -5094,7 +5334,10 @@
       <c r="G85" t="s">
         <v>26</v>
       </c>
-      <c r="H85" s="10"/>
+      <c r="H85" s="10">
+        <f>_xlfn.XLOOKUP(G85,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8600</v>
+      </c>
       <c r="I85" t="s">
         <v>15</v>
       </c>
@@ -5128,7 +5371,10 @@
       <c r="G86" t="s">
         <v>33</v>
       </c>
-      <c r="H86" s="10"/>
+      <c r="H86" s="10">
+        <f>_xlfn.XLOOKUP(G86,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>4600</v>
+      </c>
       <c r="I86" t="s">
         <v>27</v>
       </c>
@@ -5162,7 +5408,10 @@
       <c r="G87" t="s">
         <v>235</v>
       </c>
-      <c r="H87" s="10"/>
+      <c r="H87" s="10">
+        <f>_xlfn.XLOOKUP(G87,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>3500</v>
+      </c>
       <c r="I87" t="s">
         <v>62</v>
       </c>
@@ -5193,7 +5442,10 @@
       <c r="G88" t="s">
         <v>39</v>
       </c>
-      <c r="H88" s="10"/>
+      <c r="H88" s="10">
+        <f>_xlfn.XLOOKUP(G88,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>7400</v>
+      </c>
       <c r="I88" t="s">
         <v>15</v>
       </c>
@@ -5224,7 +5476,10 @@
       <c r="G89" t="s">
         <v>26</v>
       </c>
-      <c r="H89" s="10"/>
+      <c r="H89" s="10">
+        <f>_xlfn.XLOOKUP(G89,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8600</v>
+      </c>
       <c r="I89" t="s">
         <v>27</v>
       </c>
@@ -5258,7 +5513,10 @@
       <c r="G90" t="s">
         <v>33</v>
       </c>
-      <c r="H90" s="10"/>
+      <c r="H90" s="10">
+        <f>_xlfn.XLOOKUP(G90,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>4600</v>
+      </c>
       <c r="I90" t="s">
         <v>262</v>
       </c>
@@ -5292,7 +5550,10 @@
       <c r="G91" t="s">
         <v>26</v>
       </c>
-      <c r="H91" s="10"/>
+      <c r="H91" s="10">
+        <f>_xlfn.XLOOKUP(G91,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8600</v>
+      </c>
       <c r="I91" t="s">
         <v>34</v>
       </c>
@@ -5326,7 +5587,10 @@
       <c r="G92" t="s">
         <v>235</v>
       </c>
-      <c r="H92" s="10"/>
+      <c r="H92" s="10">
+        <f>_xlfn.XLOOKUP(G92,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>3500</v>
+      </c>
       <c r="I92" t="s">
         <v>62</v>
       </c>
@@ -5360,7 +5624,10 @@
       <c r="G93" t="s">
         <v>26</v>
       </c>
-      <c r="H93" s="10"/>
+      <c r="H93" s="10">
+        <f>_xlfn.XLOOKUP(G93,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8600</v>
+      </c>
       <c r="I93" t="s">
         <v>15</v>
       </c>
@@ -5391,7 +5658,10 @@
       <c r="G94" t="s">
         <v>245</v>
       </c>
-      <c r="H94" s="10"/>
+      <c r="H94" s="10">
+        <f>_xlfn.XLOOKUP(G94,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>2600</v>
+      </c>
       <c r="I94" t="s">
         <v>15</v>
       </c>
@@ -5422,7 +5692,10 @@
       <c r="G95" t="s">
         <v>14</v>
       </c>
-      <c r="H95" s="10"/>
+      <c r="H95" s="10">
+        <f>_xlfn.XLOOKUP(G95,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>2700</v>
+      </c>
       <c r="I95" t="s">
         <v>15</v>
       </c>
@@ -5456,7 +5729,10 @@
       <c r="G96" t="s">
         <v>179</v>
       </c>
-      <c r="H96" s="10"/>
+      <c r="H96" s="10">
+        <f>_xlfn.XLOOKUP(G96,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>4200</v>
+      </c>
       <c r="I96" t="s">
         <v>15</v>
       </c>
@@ -5490,7 +5766,10 @@
       <c r="G97" t="s">
         <v>14</v>
       </c>
-      <c r="H97" s="10"/>
+      <c r="H97" s="10">
+        <f>_xlfn.XLOOKUP(G97,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>2700</v>
+      </c>
       <c r="I97" t="s">
         <v>62</v>
       </c>
@@ -5524,7 +5803,10 @@
       <c r="G98" t="s">
         <v>26</v>
       </c>
-      <c r="H98" s="10"/>
+      <c r="H98" s="10">
+        <f>_xlfn.XLOOKUP(G98,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8600</v>
+      </c>
       <c r="I98" t="s">
         <v>27</v>
       </c>
@@ -5558,7 +5840,10 @@
       <c r="G99" t="s">
         <v>134</v>
       </c>
-      <c r="H99" s="10"/>
+      <c r="H99" s="10">
+        <f>_xlfn.XLOOKUP(G99,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>4100</v>
+      </c>
       <c r="I99" t="s">
         <v>62</v>
       </c>
@@ -5592,7 +5877,10 @@
       <c r="G100" t="s">
         <v>204</v>
       </c>
-      <c r="H100" s="10"/>
+      <c r="H100" s="10">
+        <f>_xlfn.XLOOKUP(G100,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>6800</v>
+      </c>
       <c r="I100" t="s">
         <v>51</v>
       </c>
@@ -5626,7 +5914,10 @@
       <c r="G101" t="s">
         <v>39</v>
       </c>
-      <c r="H101" s="10"/>
+      <c r="H101" s="10">
+        <f>_xlfn.XLOOKUP(G101,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>7400</v>
+      </c>
       <c r="I101" t="s">
         <v>15</v>
       </c>
@@ -5657,7 +5948,10 @@
       <c r="G102" t="s">
         <v>106</v>
       </c>
-      <c r="H102" s="10"/>
+      <c r="H102" s="10">
+        <f>_xlfn.XLOOKUP(G102,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8500</v>
+      </c>
       <c r="I102" t="s">
         <v>62</v>
       </c>
@@ -5688,7 +5982,10 @@
       <c r="G103" t="s">
         <v>179</v>
       </c>
-      <c r="H103" s="10"/>
+      <c r="H103" s="10">
+        <f>_xlfn.XLOOKUP(G103,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>4200</v>
+      </c>
       <c r="I103" t="s">
         <v>15</v>
       </c>
@@ -5719,7 +6016,10 @@
       <c r="G104" t="s">
         <v>67</v>
       </c>
-      <c r="H104" s="10"/>
+      <c r="H104" s="10">
+        <f>_xlfn.XLOOKUP(G104,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>2500</v>
+      </c>
       <c r="I104" t="s">
         <v>224</v>
       </c>
@@ -5753,7 +6053,10 @@
       <c r="G105" t="s">
         <v>26</v>
       </c>
-      <c r="H105" s="10"/>
+      <c r="H105" s="10">
+        <f>_xlfn.XLOOKUP(G105,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8600</v>
+      </c>
       <c r="I105" t="s">
         <v>34</v>
       </c>
@@ -5784,7 +6087,10 @@
       <c r="G106" t="s">
         <v>245</v>
       </c>
-      <c r="H106" s="10"/>
+      <c r="H106" s="10">
+        <f>_xlfn.XLOOKUP(G106,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>2600</v>
+      </c>
       <c r="I106" t="s">
         <v>15</v>
       </c>
@@ -5818,7 +6124,10 @@
       <c r="G107" t="s">
         <v>134</v>
       </c>
-      <c r="H107" s="10"/>
+      <c r="H107" s="10">
+        <f>_xlfn.XLOOKUP(G107,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>4100</v>
+      </c>
       <c r="I107" t="s">
         <v>62</v>
       </c>
@@ -5852,7 +6161,10 @@
       <c r="G108" t="s">
         <v>235</v>
       </c>
-      <c r="H108" s="10"/>
+      <c r="H108" s="10">
+        <f>_xlfn.XLOOKUP(G108,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>3500</v>
+      </c>
       <c r="I108" t="s">
         <v>15</v>
       </c>
@@ -5883,7 +6195,10 @@
       <c r="G109" t="s">
         <v>134</v>
       </c>
-      <c r="H109" s="10"/>
+      <c r="H109" s="10">
+        <f>_xlfn.XLOOKUP(G109,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>4100</v>
+      </c>
       <c r="I109" t="s">
         <v>15</v>
       </c>
@@ -5914,7 +6229,10 @@
       <c r="G110" t="s">
         <v>26</v>
       </c>
-      <c r="H110" s="10"/>
+      <c r="H110" s="10">
+        <f>_xlfn.XLOOKUP(G110,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8600</v>
+      </c>
       <c r="I110" t="s">
         <v>62</v>
       </c>
@@ -5945,7 +6263,10 @@
       <c r="G111" t="s">
         <v>78</v>
       </c>
-      <c r="H111" s="10"/>
+      <c r="H111" s="10">
+        <f>_xlfn.XLOOKUP(G111,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>5800</v>
+      </c>
       <c r="I111" t="s">
         <v>15</v>
       </c>
@@ -5976,7 +6297,10 @@
       <c r="G112" t="s">
         <v>50</v>
       </c>
-      <c r="H112" s="10"/>
+      <c r="H112" s="10">
+        <f>_xlfn.XLOOKUP(G112,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>7500</v>
+      </c>
       <c r="I112" t="s">
         <v>308</v>
       </c>
@@ -6010,7 +6334,10 @@
       <c r="G113" t="s">
         <v>26</v>
       </c>
-      <c r="H113" s="10"/>
+      <c r="H113" s="10">
+        <f>_xlfn.XLOOKUP(G113,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8600</v>
+      </c>
       <c r="I113" t="s">
         <v>62</v>
       </c>
@@ -6044,7 +6371,10 @@
       <c r="G114" t="s">
         <v>26</v>
       </c>
-      <c r="H114" s="10"/>
+      <c r="H114" s="10">
+        <f>_xlfn.XLOOKUP(G114,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8600</v>
+      </c>
       <c r="I114" t="s">
         <v>27</v>
       </c>
@@ -6078,7 +6408,10 @@
       <c r="G115" t="s">
         <v>39</v>
       </c>
-      <c r="H115" s="10"/>
+      <c r="H115" s="10">
+        <f>_xlfn.XLOOKUP(G115,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>7400</v>
+      </c>
       <c r="I115" t="s">
         <v>15</v>
       </c>
@@ -6112,7 +6445,10 @@
       <c r="G116" t="s">
         <v>134</v>
       </c>
-      <c r="H116" s="10"/>
+      <c r="H116" s="10">
+        <f>_xlfn.XLOOKUP(G116,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>4100</v>
+      </c>
       <c r="I116" t="s">
         <v>15</v>
       </c>
@@ -6143,7 +6479,10 @@
       <c r="G117" t="s">
         <v>110</v>
       </c>
-      <c r="H117" s="10"/>
+      <c r="H117" s="10">
+        <f>_xlfn.XLOOKUP(G117,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>2400</v>
+      </c>
       <c r="I117" t="s">
         <v>15</v>
       </c>
@@ -6174,7 +6513,10 @@
       <c r="G118" t="s">
         <v>106</v>
       </c>
-      <c r="H118" s="10"/>
+      <c r="H118" s="10">
+        <f>_xlfn.XLOOKUP(G118,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8500</v>
+      </c>
       <c r="I118" t="s">
         <v>15</v>
       </c>
@@ -6205,7 +6547,10 @@
       <c r="G119" t="s">
         <v>245</v>
       </c>
-      <c r="H119" s="10"/>
+      <c r="H119" s="10">
+        <f>_xlfn.XLOOKUP(G119,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>2600</v>
+      </c>
       <c r="I119" t="s">
         <v>62</v>
       </c>
@@ -6236,7 +6581,10 @@
       <c r="G120" t="s">
         <v>21</v>
       </c>
-      <c r="H120" s="10"/>
+      <c r="H120" s="10">
+        <f>_xlfn.XLOOKUP(G120,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>3600</v>
+      </c>
       <c r="I120" t="s">
         <v>34</v>
       </c>
@@ -6267,7 +6615,10 @@
       <c r="G121" t="s">
         <v>235</v>
       </c>
-      <c r="H121" s="10"/>
+      <c r="H121" s="10">
+        <f>_xlfn.XLOOKUP(G121,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>3500</v>
+      </c>
       <c r="I121" t="s">
         <v>27</v>
       </c>
@@ -6298,7 +6649,10 @@
       <c r="G122" t="s">
         <v>33</v>
       </c>
-      <c r="H122" s="10"/>
+      <c r="H122" s="10">
+        <f>_xlfn.XLOOKUP(G122,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>4600</v>
+      </c>
       <c r="I122" t="s">
         <v>224</v>
       </c>
@@ -6329,7 +6683,10 @@
       <c r="G123" t="s">
         <v>185</v>
       </c>
-      <c r="H123" s="10"/>
+      <c r="H123" s="10">
+        <f>_xlfn.XLOOKUP(G123,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>2300</v>
+      </c>
       <c r="I123" t="s">
         <v>62</v>
       </c>
@@ -6360,7 +6717,10 @@
       <c r="G124" t="s">
         <v>45</v>
       </c>
-      <c r="H124" s="10"/>
+      <c r="H124" s="10">
+        <f>_xlfn.XLOOKUP(G124,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8100</v>
+      </c>
       <c r="I124" t="s">
         <v>62</v>
       </c>
@@ -6391,7 +6751,10 @@
       <c r="G125" t="s">
         <v>78</v>
       </c>
-      <c r="H125" s="10"/>
+      <c r="H125" s="10">
+        <f>_xlfn.XLOOKUP(G125,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>5800</v>
+      </c>
       <c r="I125" t="s">
         <v>34</v>
       </c>
@@ -6422,7 +6785,10 @@
       <c r="G126" t="s">
         <v>235</v>
       </c>
-      <c r="H126" s="10"/>
+      <c r="H126" s="10">
+        <f>_xlfn.XLOOKUP(G126,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>3500</v>
+      </c>
       <c r="I126" t="s">
         <v>62</v>
       </c>
@@ -6456,7 +6822,10 @@
       <c r="G127" t="s">
         <v>235</v>
       </c>
-      <c r="H127" s="10"/>
+      <c r="H127" s="10">
+        <f>_xlfn.XLOOKUP(G127,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>3500</v>
+      </c>
       <c r="I127" t="s">
         <v>34</v>
       </c>
@@ -6487,7 +6856,10 @@
       <c r="G128" t="s">
         <v>21</v>
       </c>
-      <c r="H128" s="10"/>
+      <c r="H128" s="10">
+        <f>_xlfn.XLOOKUP(G128,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>3600</v>
+      </c>
       <c r="I128" t="s">
         <v>27</v>
       </c>
@@ -6521,7 +6893,10 @@
       <c r="G129" t="s">
         <v>134</v>
       </c>
-      <c r="H129" s="10"/>
+      <c r="H129" s="10">
+        <f>_xlfn.XLOOKUP(G129,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>4100</v>
+      </c>
       <c r="I129" t="s">
         <v>27</v>
       </c>
@@ -6555,7 +6930,10 @@
       <c r="G130" t="s">
         <v>78</v>
       </c>
-      <c r="H130" s="10"/>
+      <c r="H130" s="10">
+        <f>_xlfn.XLOOKUP(G130,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>5800</v>
+      </c>
       <c r="I130" t="s">
         <v>15</v>
       </c>
@@ -6586,7 +6964,10 @@
       <c r="G131" t="s">
         <v>106</v>
       </c>
-      <c r="H131" s="10"/>
+      <c r="H131" s="10">
+        <f>_xlfn.XLOOKUP(G131,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8500</v>
+      </c>
       <c r="I131" t="s">
         <v>350</v>
       </c>
@@ -6620,7 +7001,10 @@
       <c r="G132" t="s">
         <v>78</v>
       </c>
-      <c r="H132" s="10"/>
+      <c r="H132" s="10">
+        <f>_xlfn.XLOOKUP(G132,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>5800</v>
+      </c>
       <c r="I132" t="s">
         <v>15</v>
       </c>
@@ -6654,7 +7038,10 @@
       <c r="G133" t="s">
         <v>33</v>
       </c>
-      <c r="H133" s="10"/>
+      <c r="H133" s="10">
+        <f>_xlfn.XLOOKUP(G133,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>4600</v>
+      </c>
       <c r="I133" t="s">
         <v>355</v>
       </c>
@@ -6685,7 +7072,10 @@
       <c r="G134" t="s">
         <v>21</v>
       </c>
-      <c r="H134" s="10"/>
+      <c r="H134" s="10">
+        <f>_xlfn.XLOOKUP(G134,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>3600</v>
+      </c>
       <c r="I134" t="s">
         <v>40</v>
       </c>
@@ -6716,7 +7106,10 @@
       <c r="G135" t="s">
         <v>26</v>
       </c>
-      <c r="H135" s="10"/>
+      <c r="H135" s="10">
+        <f>_xlfn.XLOOKUP(G135,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8600</v>
+      </c>
       <c r="I135" t="s">
         <v>15</v>
       </c>
@@ -6747,7 +7140,10 @@
       <c r="G136" t="s">
         <v>39</v>
       </c>
-      <c r="H136" s="10"/>
+      <c r="H136" s="10">
+        <f>_xlfn.XLOOKUP(G136,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>7400</v>
+      </c>
       <c r="I136" t="s">
         <v>15</v>
       </c>
@@ -6781,7 +7177,10 @@
       <c r="G137" t="s">
         <v>26</v>
       </c>
-      <c r="H137" s="10"/>
+      <c r="H137" s="10">
+        <f>_xlfn.XLOOKUP(G137,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8600</v>
+      </c>
       <c r="I137" t="s">
         <v>15</v>
       </c>
@@ -6815,7 +7214,10 @@
       <c r="G138" t="s">
         <v>33</v>
       </c>
-      <c r="H138" s="10"/>
+      <c r="H138" s="10">
+        <f>_xlfn.XLOOKUP(G138,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>4600</v>
+      </c>
       <c r="I138" t="s">
         <v>40</v>
       </c>
@@ -6849,7 +7251,10 @@
       <c r="G139" t="s">
         <v>78</v>
       </c>
-      <c r="H139" s="10"/>
+      <c r="H139" s="10">
+        <f>_xlfn.XLOOKUP(G139,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>5800</v>
+      </c>
       <c r="I139" t="s">
         <v>27</v>
       </c>
@@ -6880,7 +7285,10 @@
       <c r="G140" t="s">
         <v>33</v>
       </c>
-      <c r="H140" s="10"/>
+      <c r="H140" s="10">
+        <f>_xlfn.XLOOKUP(G140,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>4600</v>
+      </c>
       <c r="I140" t="s">
         <v>40</v>
       </c>
@@ -6914,7 +7322,10 @@
       <c r="G141" t="s">
         <v>26</v>
       </c>
-      <c r="H141" s="10"/>
+      <c r="H141" s="10">
+        <f>_xlfn.XLOOKUP(G141,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8600</v>
+      </c>
       <c r="I141" t="s">
         <v>27</v>
       </c>
@@ -6948,7 +7359,10 @@
       <c r="G142" t="s">
         <v>45</v>
       </c>
-      <c r="H142" s="10"/>
+      <c r="H142" s="10">
+        <f>_xlfn.XLOOKUP(G142,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8100</v>
+      </c>
       <c r="I142" t="s">
         <v>62</v>
       </c>
@@ -6979,7 +7393,10 @@
       <c r="G143" t="s">
         <v>106</v>
       </c>
-      <c r="H143" s="10"/>
+      <c r="H143" s="10">
+        <f>_xlfn.XLOOKUP(G143,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8500</v>
+      </c>
       <c r="I143" t="s">
         <v>62</v>
       </c>
@@ -7010,7 +7427,10 @@
       <c r="G144" t="s">
         <v>106</v>
       </c>
-      <c r="H144" s="10"/>
+      <c r="H144" s="10">
+        <f>_xlfn.XLOOKUP(G144,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8500</v>
+      </c>
       <c r="I144" t="s">
         <v>34</v>
       </c>
@@ -7041,7 +7461,10 @@
       <c r="G145" t="s">
         <v>26</v>
       </c>
-      <c r="H145" s="10"/>
+      <c r="H145" s="10">
+        <f>_xlfn.XLOOKUP(G145,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8600</v>
+      </c>
       <c r="I145" t="s">
         <v>62</v>
       </c>
@@ -7072,7 +7495,10 @@
       <c r="G146" t="s">
         <v>235</v>
       </c>
-      <c r="H146" s="10"/>
+      <c r="H146" s="10">
+        <f>_xlfn.XLOOKUP(G146,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>3500</v>
+      </c>
       <c r="I146" t="s">
         <v>15</v>
       </c>
@@ -7103,7 +7529,10 @@
       <c r="G147" t="s">
         <v>26</v>
       </c>
-      <c r="H147" s="10"/>
+      <c r="H147" s="10">
+        <f>_xlfn.XLOOKUP(G147,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8600</v>
+      </c>
       <c r="I147" t="s">
         <v>62</v>
       </c>
@@ -7137,7 +7566,10 @@
       <c r="G148" t="s">
         <v>33</v>
       </c>
-      <c r="H148" s="10"/>
+      <c r="H148" s="10">
+        <f>_xlfn.XLOOKUP(G148,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>4600</v>
+      </c>
       <c r="I148" t="s">
         <v>124</v>
       </c>
@@ -7171,7 +7603,10 @@
       <c r="G149" t="s">
         <v>26</v>
       </c>
-      <c r="H149" s="10"/>
+      <c r="H149" s="10">
+        <f>_xlfn.XLOOKUP(G149,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8600</v>
+      </c>
       <c r="I149" t="s">
         <v>62</v>
       </c>
@@ -7205,7 +7640,10 @@
       <c r="G150" t="s">
         <v>200</v>
       </c>
-      <c r="H150" s="10"/>
+      <c r="H150" s="10">
+        <f>_xlfn.XLOOKUP(G150,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>2000</v>
+      </c>
       <c r="I150" t="s">
         <v>15</v>
       </c>
@@ -7239,7 +7677,10 @@
       <c r="G151" t="s">
         <v>26</v>
       </c>
-      <c r="H151" s="10"/>
+      <c r="H151" s="10">
+        <f>_xlfn.XLOOKUP(G151,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8600</v>
+      </c>
       <c r="I151" t="s">
         <v>15</v>
       </c>
@@ -7273,7 +7714,10 @@
       <c r="G152" t="s">
         <v>200</v>
       </c>
-      <c r="H152" s="10"/>
+      <c r="H152" s="10">
+        <f>_xlfn.XLOOKUP(G152,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>2000</v>
+      </c>
       <c r="I152" t="s">
         <v>27</v>
       </c>
@@ -7307,7 +7751,10 @@
       <c r="G153" t="s">
         <v>134</v>
       </c>
-      <c r="H153" s="10"/>
+      <c r="H153" s="10">
+        <f>_xlfn.XLOOKUP(G153,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>4100</v>
+      </c>
       <c r="I153" t="s">
         <v>27</v>
       </c>
@@ -7341,7 +7788,10 @@
       <c r="G154" t="s">
         <v>26</v>
       </c>
-      <c r="H154" s="10"/>
+      <c r="H154" s="10">
+        <f>_xlfn.XLOOKUP(G154,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8600</v>
+      </c>
       <c r="I154" t="s">
         <v>15</v>
       </c>
@@ -7375,7 +7825,10 @@
       <c r="G155" t="s">
         <v>39</v>
       </c>
-      <c r="H155" s="10"/>
+      <c r="H155" s="10">
+        <f>_xlfn.XLOOKUP(G155,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>7400</v>
+      </c>
       <c r="I155" t="s">
         <v>62</v>
       </c>
@@ -7409,7 +7862,10 @@
       <c r="G156" t="s">
         <v>26</v>
       </c>
-      <c r="H156" s="10"/>
+      <c r="H156" s="10">
+        <f>_xlfn.XLOOKUP(G156,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8600</v>
+      </c>
       <c r="I156" t="s">
         <v>62</v>
       </c>
@@ -7443,7 +7899,10 @@
       <c r="G157" t="s">
         <v>235</v>
       </c>
-      <c r="H157" s="10"/>
+      <c r="H157" s="10">
+        <f>_xlfn.XLOOKUP(G157,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>3500</v>
+      </c>
       <c r="I157" t="s">
         <v>34</v>
       </c>
@@ -7474,7 +7933,10 @@
       <c r="G158" t="s">
         <v>78</v>
       </c>
-      <c r="H158" s="10"/>
+      <c r="H158" s="10">
+        <f>_xlfn.XLOOKUP(G158,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>5800</v>
+      </c>
       <c r="I158" t="s">
         <v>15</v>
       </c>
@@ -7505,7 +7967,10 @@
       <c r="G159" t="s">
         <v>59</v>
       </c>
-      <c r="H159" s="10"/>
+      <c r="H159" s="10">
+        <f>_xlfn.XLOOKUP(G159,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>6400</v>
+      </c>
       <c r="I159" t="s">
         <v>27</v>
       </c>
@@ -7536,7 +8001,10 @@
       <c r="G160" t="s">
         <v>235</v>
       </c>
-      <c r="H160" s="10"/>
+      <c r="H160" s="10">
+        <f>_xlfn.XLOOKUP(G160,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>3500</v>
+      </c>
       <c r="I160" t="s">
         <v>15</v>
       </c>
@@ -7567,7 +8035,10 @@
       <c r="G161" t="s">
         <v>26</v>
       </c>
-      <c r="H161" s="10"/>
+      <c r="H161" s="10">
+        <f>_xlfn.XLOOKUP(G161,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8600</v>
+      </c>
       <c r="I161" t="s">
         <v>15</v>
       </c>
@@ -7598,7 +8069,10 @@
       <c r="G162" t="s">
         <v>21</v>
       </c>
-      <c r="H162" s="10"/>
+      <c r="H162" s="10">
+        <f>_xlfn.XLOOKUP(G162,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>3600</v>
+      </c>
       <c r="I162" t="s">
         <v>15</v>
       </c>
@@ -7629,7 +8103,10 @@
       <c r="G163" t="s">
         <v>192</v>
       </c>
-      <c r="H163" s="10"/>
+      <c r="H163" s="10">
+        <f>_xlfn.XLOOKUP(G163,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>2100</v>
+      </c>
       <c r="I163" t="s">
         <v>40</v>
       </c>
@@ -7660,7 +8137,10 @@
       <c r="G164" t="s">
         <v>204</v>
       </c>
-      <c r="H164" s="10"/>
+      <c r="H164" s="10">
+        <f>_xlfn.XLOOKUP(G164,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>6800</v>
+      </c>
       <c r="I164" t="s">
         <v>51</v>
       </c>
@@ -7691,7 +8171,10 @@
       <c r="G165" t="s">
         <v>26</v>
       </c>
-      <c r="H165" s="10"/>
+      <c r="H165" s="10">
+        <f>_xlfn.XLOOKUP(G165,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8600</v>
+      </c>
       <c r="I165" t="s">
         <v>27</v>
       </c>
@@ -7722,7 +8205,10 @@
       <c r="G166" t="s">
         <v>26</v>
       </c>
-      <c r="H166" s="10"/>
+      <c r="H166" s="10">
+        <f>_xlfn.XLOOKUP(G166,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8600</v>
+      </c>
       <c r="I166" t="s">
         <v>27</v>
       </c>
@@ -7753,7 +8239,10 @@
       <c r="G167" t="s">
         <v>26</v>
       </c>
-      <c r="H167" s="10"/>
+      <c r="H167" s="10">
+        <f>_xlfn.XLOOKUP(G167,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8600</v>
+      </c>
       <c r="I167" t="s">
         <v>15</v>
       </c>
@@ -7784,7 +8273,10 @@
       <c r="G168" t="s">
         <v>110</v>
       </c>
-      <c r="H168" s="10"/>
+      <c r="H168" s="10">
+        <f>_xlfn.XLOOKUP(G168,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>2400</v>
+      </c>
       <c r="I168" t="s">
         <v>124</v>
       </c>
@@ -7815,7 +8307,10 @@
       <c r="G169" t="s">
         <v>39</v>
       </c>
-      <c r="H169" s="10"/>
+      <c r="H169" s="10">
+        <f>_xlfn.XLOOKUP(G169,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>7400</v>
+      </c>
       <c r="I169" t="s">
         <v>27</v>
       </c>
@@ -7846,7 +8341,10 @@
       <c r="G170" t="s">
         <v>26</v>
       </c>
-      <c r="H170" s="10"/>
+      <c r="H170" s="10">
+        <f>_xlfn.XLOOKUP(G170,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8600</v>
+      </c>
       <c r="I170" t="s">
         <v>62</v>
       </c>
@@ -7880,7 +8378,10 @@
       <c r="G171" t="s">
         <v>26</v>
       </c>
-      <c r="H171" s="10"/>
+      <c r="H171" s="10">
+        <f>_xlfn.XLOOKUP(G171,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8600</v>
+      </c>
       <c r="I171" t="s">
         <v>15</v>
       </c>
@@ -7914,7 +8415,10 @@
       <c r="G172" t="s">
         <v>33</v>
       </c>
-      <c r="H172" s="10"/>
+      <c r="H172" s="10">
+        <f>_xlfn.XLOOKUP(G172,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>4600</v>
+      </c>
       <c r="I172" t="s">
         <v>15</v>
       </c>
@@ -7948,7 +8452,10 @@
       <c r="G173" t="s">
         <v>21</v>
       </c>
-      <c r="H173" s="10"/>
+      <c r="H173" s="10">
+        <f>_xlfn.XLOOKUP(G173,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>3600</v>
+      </c>
       <c r="I173" t="s">
         <v>62</v>
       </c>
@@ -7979,7 +8486,10 @@
       <c r="G174" t="s">
         <v>26</v>
       </c>
-      <c r="H174" s="10"/>
+      <c r="H174" s="10">
+        <f>_xlfn.XLOOKUP(G174,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8600</v>
+      </c>
       <c r="I174" t="s">
         <v>62</v>
       </c>
@@ -8010,7 +8520,10 @@
       <c r="G175" t="s">
         <v>26</v>
       </c>
-      <c r="H175" s="10"/>
+      <c r="H175" s="10">
+        <f>_xlfn.XLOOKUP(G175,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8600</v>
+      </c>
       <c r="I175" t="s">
         <v>27</v>
       </c>
@@ -8041,7 +8554,10 @@
       <c r="G176" t="s">
         <v>26</v>
       </c>
-      <c r="H176" s="10"/>
+      <c r="H176" s="10">
+        <f>_xlfn.XLOOKUP(G176,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8600</v>
+      </c>
       <c r="I176" t="s">
         <v>27</v>
       </c>
@@ -8072,7 +8588,10 @@
       <c r="G177" t="s">
         <v>26</v>
       </c>
-      <c r="H177" s="10"/>
+      <c r="H177" s="10">
+        <f>_xlfn.XLOOKUP(G177,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8600</v>
+      </c>
       <c r="I177" t="s">
         <v>62</v>
       </c>
@@ -8103,7 +8622,10 @@
       <c r="G178" t="s">
         <v>14</v>
       </c>
-      <c r="H178" s="10"/>
+      <c r="H178" s="10">
+        <f>_xlfn.XLOOKUP(G178,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>2700</v>
+      </c>
       <c r="I178" t="s">
         <v>15</v>
       </c>
@@ -8134,7 +8656,10 @@
       <c r="G179" t="s">
         <v>192</v>
       </c>
-      <c r="H179" s="10"/>
+      <c r="H179" s="10">
+        <f>_xlfn.XLOOKUP(G179,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>2100</v>
+      </c>
       <c r="I179" t="s">
         <v>27</v>
       </c>
@@ -8165,7 +8690,10 @@
       <c r="G180" t="s">
         <v>45</v>
       </c>
-      <c r="H180" s="10"/>
+      <c r="H180" s="10">
+        <f>_xlfn.XLOOKUP(G180,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8100</v>
+      </c>
       <c r="I180" t="s">
         <v>15</v>
       </c>
@@ -8199,7 +8727,10 @@
       <c r="G181" t="s">
         <v>26</v>
       </c>
-      <c r="H181" s="10"/>
+      <c r="H181" s="10">
+        <f>_xlfn.XLOOKUP(G181,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8600</v>
+      </c>
       <c r="I181" t="s">
         <v>15</v>
       </c>
@@ -8230,7 +8761,10 @@
       <c r="G182" t="s">
         <v>78</v>
       </c>
-      <c r="H182" s="10"/>
+      <c r="H182" s="10">
+        <f>_xlfn.XLOOKUP(G182,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>5800</v>
+      </c>
       <c r="I182" t="s">
         <v>15</v>
       </c>
@@ -8261,7 +8795,10 @@
       <c r="G183" t="s">
         <v>39</v>
       </c>
-      <c r="H183" s="10"/>
+      <c r="H183" s="10">
+        <f>_xlfn.XLOOKUP(G183,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>7400</v>
+      </c>
       <c r="I183" t="s">
         <v>15</v>
       </c>
@@ -8295,7 +8832,10 @@
       <c r="G184" t="s">
         <v>245</v>
       </c>
-      <c r="H184" s="10"/>
+      <c r="H184" s="10">
+        <f>_xlfn.XLOOKUP(G184,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>2600</v>
+      </c>
       <c r="I184" t="s">
         <v>34</v>
       </c>
@@ -8326,7 +8866,10 @@
       <c r="G185" t="s">
         <v>82</v>
       </c>
-      <c r="H185" s="10"/>
+      <c r="H185" s="10">
+        <f>_xlfn.XLOOKUP(G185,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>4900</v>
+      </c>
       <c r="I185" t="s">
         <v>15</v>
       </c>
@@ -8357,7 +8900,10 @@
       <c r="G186" t="s">
         <v>33</v>
       </c>
-      <c r="H186" s="10"/>
+      <c r="H186" s="10">
+        <f>_xlfn.XLOOKUP(G186,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>4600</v>
+      </c>
       <c r="I186" t="s">
         <v>15</v>
       </c>
@@ -8388,7 +8934,10 @@
       <c r="G187" t="s">
         <v>50</v>
       </c>
-      <c r="H187" s="10"/>
+      <c r="H187" s="10">
+        <f>_xlfn.XLOOKUP(G187,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>7500</v>
+      </c>
       <c r="I187" t="s">
         <v>51</v>
       </c>
@@ -8419,7 +8968,10 @@
       <c r="G188" t="s">
         <v>134</v>
       </c>
-      <c r="H188" s="10"/>
+      <c r="H188" s="10">
+        <f>_xlfn.XLOOKUP(G188,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>4100</v>
+      </c>
       <c r="I188" t="s">
         <v>27</v>
       </c>
@@ -8453,7 +9005,10 @@
       <c r="G189" t="s">
         <v>39</v>
       </c>
-      <c r="H189" s="10"/>
+      <c r="H189" s="10">
+        <f>_xlfn.XLOOKUP(G189,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>7400</v>
+      </c>
       <c r="I189" t="s">
         <v>40</v>
       </c>
@@ -8484,7 +9039,10 @@
       <c r="G190" t="s">
         <v>106</v>
       </c>
-      <c r="H190" s="10"/>
+      <c r="H190" s="10">
+        <f>_xlfn.XLOOKUP(G190,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8500</v>
+      </c>
       <c r="I190" t="s">
         <v>34</v>
       </c>
@@ -8518,7 +9076,10 @@
       <c r="G191" t="s">
         <v>21</v>
       </c>
-      <c r="H191" s="10"/>
+      <c r="H191" s="10">
+        <f>_xlfn.XLOOKUP(G191,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>3600</v>
+      </c>
       <c r="I191" t="s">
         <v>15</v>
       </c>
@@ -8552,7 +9113,10 @@
       <c r="G192" t="s">
         <v>26</v>
       </c>
-      <c r="H192" s="10"/>
+      <c r="H192" s="10">
+        <f>_xlfn.XLOOKUP(G192,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8600</v>
+      </c>
       <c r="I192" t="s">
         <v>34</v>
       </c>
@@ -8586,7 +9150,10 @@
       <c r="G193" t="s">
         <v>106</v>
       </c>
-      <c r="H193" s="10"/>
+      <c r="H193" s="10">
+        <f>_xlfn.XLOOKUP(G193,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8500</v>
+      </c>
       <c r="I193" t="s">
         <v>40</v>
       </c>
@@ -8620,7 +9187,10 @@
       <c r="G194" t="s">
         <v>39</v>
       </c>
-      <c r="H194" s="10"/>
+      <c r="H194" s="10">
+        <f>_xlfn.XLOOKUP(G194,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>7400</v>
+      </c>
       <c r="I194" t="s">
         <v>15</v>
       </c>
@@ -8654,7 +9224,10 @@
       <c r="G195" t="s">
         <v>134</v>
       </c>
-      <c r="H195" s="10"/>
+      <c r="H195" s="10">
+        <f>_xlfn.XLOOKUP(G195,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>4100</v>
+      </c>
       <c r="I195" t="s">
         <v>15</v>
       </c>
@@ -8685,7 +9258,10 @@
       <c r="G196" t="s">
         <v>26</v>
       </c>
-      <c r="H196" s="10"/>
+      <c r="H196" s="10">
+        <f>_xlfn.XLOOKUP(G196,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8600</v>
+      </c>
       <c r="I196" t="s">
         <v>15</v>
       </c>
@@ -8719,7 +9295,10 @@
       <c r="G197" t="s">
         <v>95</v>
       </c>
-      <c r="H197" s="10"/>
+      <c r="H197" s="10">
+        <f>_xlfn.XLOOKUP(G197,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>6000</v>
+      </c>
       <c r="I197" t="s">
         <v>15</v>
       </c>
@@ -8750,7 +9329,10 @@
       <c r="G198" t="s">
         <v>45</v>
       </c>
-      <c r="H198" s="10"/>
+      <c r="H198" s="10">
+        <f>_xlfn.XLOOKUP(G198,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8100</v>
+      </c>
       <c r="I198" t="s">
         <v>62</v>
       </c>
@@ -8781,7 +9363,10 @@
       <c r="G199" t="s">
         <v>39</v>
       </c>
-      <c r="H199" s="10"/>
+      <c r="H199" s="10">
+        <f>_xlfn.XLOOKUP(G199,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>7400</v>
+      </c>
       <c r="I199" t="s">
         <v>40</v>
       </c>
@@ -8812,7 +9397,10 @@
       <c r="G200" t="s">
         <v>106</v>
       </c>
-      <c r="H200" s="10"/>
+      <c r="H200" s="10">
+        <f>_xlfn.XLOOKUP(G200,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8500</v>
+      </c>
       <c r="I200" t="s">
         <v>40</v>
       </c>
@@ -8843,7 +9431,10 @@
       <c r="G201" t="s">
         <v>26</v>
       </c>
-      <c r="H201" s="10"/>
+      <c r="H201" s="10">
+        <f>_xlfn.XLOOKUP(G201,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8600</v>
+      </c>
       <c r="I201" t="s">
         <v>27</v>
       </c>
@@ -8877,7 +9468,10 @@
       <c r="G202" t="s">
         <v>26</v>
       </c>
-      <c r="H202" s="10"/>
+      <c r="H202" s="10">
+        <f>_xlfn.XLOOKUP(G202,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8600</v>
+      </c>
       <c r="I202" t="s">
         <v>27</v>
       </c>
@@ -8908,7 +9502,10 @@
       <c r="G203" t="s">
         <v>110</v>
       </c>
-      <c r="H203" s="10"/>
+      <c r="H203" s="10">
+        <f>_xlfn.XLOOKUP(G203,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>2400</v>
+      </c>
       <c r="I203" t="s">
         <v>15</v>
       </c>
@@ -8939,7 +9536,10 @@
       <c r="G204" t="s">
         <v>192</v>
       </c>
-      <c r="H204" s="10"/>
+      <c r="H204" s="10">
+        <f>_xlfn.XLOOKUP(G204,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>2100</v>
+      </c>
       <c r="I204" t="s">
         <v>40</v>
       </c>
@@ -8970,7 +9570,10 @@
       <c r="G205" t="s">
         <v>106</v>
       </c>
-      <c r="H205" s="10"/>
+      <c r="H205" s="10">
+        <f>_xlfn.XLOOKUP(G205,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8500</v>
+      </c>
       <c r="I205" t="s">
         <v>62</v>
       </c>
@@ -9001,7 +9604,10 @@
       <c r="G206" t="s">
         <v>200</v>
       </c>
-      <c r="H206" s="10"/>
+      <c r="H206" s="10">
+        <f>_xlfn.XLOOKUP(G206,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>2000</v>
+      </c>
       <c r="I206" t="s">
         <v>15</v>
       </c>
@@ -9032,7 +9638,10 @@
       <c r="G207" t="s">
         <v>26</v>
       </c>
-      <c r="H207" s="10"/>
+      <c r="H207" s="10">
+        <f>_xlfn.XLOOKUP(G207,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8600</v>
+      </c>
       <c r="I207" t="s">
         <v>27</v>
       </c>
@@ -9063,7 +9672,10 @@
       <c r="G208" t="s">
         <v>39</v>
       </c>
-      <c r="H208" s="10"/>
+      <c r="H208" s="10">
+        <f>_xlfn.XLOOKUP(G208,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>7400</v>
+      </c>
       <c r="I208" t="s">
         <v>62</v>
       </c>
@@ -9094,7 +9706,10 @@
       <c r="G209" t="s">
         <v>39</v>
       </c>
-      <c r="H209" s="10"/>
+      <c r="H209" s="10">
+        <f>_xlfn.XLOOKUP(G209,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>7400</v>
+      </c>
       <c r="I209" t="s">
         <v>40</v>
       </c>
@@ -9125,7 +9740,10 @@
       <c r="G210" t="s">
         <v>106</v>
       </c>
-      <c r="H210" s="10"/>
+      <c r="H210" s="10">
+        <f>_xlfn.XLOOKUP(G210,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8500</v>
+      </c>
       <c r="I210" t="s">
         <v>62</v>
       </c>
@@ -9156,7 +9774,10 @@
       <c r="G211" t="s">
         <v>245</v>
       </c>
-      <c r="H211" s="10"/>
+      <c r="H211" s="10">
+        <f>_xlfn.XLOOKUP(G211,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>2600</v>
+      </c>
       <c r="I211" t="s">
         <v>27</v>
       </c>
@@ -9190,7 +9811,10 @@
       <c r="G212" t="s">
         <v>78</v>
       </c>
-      <c r="H212" s="10"/>
+      <c r="H212" s="10">
+        <f>_xlfn.XLOOKUP(G212,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>5800</v>
+      </c>
       <c r="I212" t="s">
         <v>27</v>
       </c>
@@ -9221,7 +9845,10 @@
       <c r="G213" t="s">
         <v>26</v>
       </c>
-      <c r="H213" s="10"/>
+      <c r="H213" s="10">
+        <f>_xlfn.XLOOKUP(G213,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8600</v>
+      </c>
       <c r="I213" t="s">
         <v>27</v>
       </c>
@@ -9252,7 +9879,10 @@
       <c r="G214" t="s">
         <v>106</v>
       </c>
-      <c r="H214" s="10"/>
+      <c r="H214" s="10">
+        <f>_xlfn.XLOOKUP(G214,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8500</v>
+      </c>
       <c r="I214" t="s">
         <v>62</v>
       </c>
@@ -9283,7 +9913,10 @@
       <c r="G215" t="s">
         <v>26</v>
       </c>
-      <c r="H215" s="10"/>
+      <c r="H215" s="10">
+        <f>_xlfn.XLOOKUP(G215,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8600</v>
+      </c>
       <c r="I215" t="s">
         <v>224</v>
       </c>
@@ -9314,7 +9947,10 @@
       <c r="G216" t="s">
         <v>78</v>
       </c>
-      <c r="H216" s="10"/>
+      <c r="H216" s="10">
+        <f>_xlfn.XLOOKUP(G216,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>5800</v>
+      </c>
       <c r="I216" t="s">
         <v>62</v>
       </c>
@@ -9345,7 +9981,10 @@
       <c r="G217" t="s">
         <v>78</v>
       </c>
-      <c r="H217" s="10"/>
+      <c r="H217" s="10">
+        <f>_xlfn.XLOOKUP(G217,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>5800</v>
+      </c>
       <c r="I217" t="s">
         <v>62</v>
       </c>
@@ -9376,7 +10015,10 @@
       <c r="G218" t="s">
         <v>26</v>
       </c>
-      <c r="H218" s="10"/>
+      <c r="H218" s="10">
+        <f>_xlfn.XLOOKUP(G218,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8600</v>
+      </c>
       <c r="I218" t="s">
         <v>27</v>
       </c>
@@ -9407,7 +10049,10 @@
       <c r="G219" t="s">
         <v>39</v>
       </c>
-      <c r="H219" s="10"/>
+      <c r="H219" s="10">
+        <f>_xlfn.XLOOKUP(G219,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>7400</v>
+      </c>
       <c r="I219" t="s">
         <v>15</v>
       </c>
@@ -9438,7 +10083,10 @@
       <c r="G220" t="s">
         <v>59</v>
       </c>
-      <c r="H220" s="10"/>
+      <c r="H220" s="10">
+        <f>_xlfn.XLOOKUP(G220,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>6400</v>
+      </c>
       <c r="I220" t="s">
         <v>27</v>
       </c>
@@ -9469,7 +10117,10 @@
       <c r="G221" t="s">
         <v>39</v>
       </c>
-      <c r="H221" s="10"/>
+      <c r="H221" s="10">
+        <f>_xlfn.XLOOKUP(G221,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>7400</v>
+      </c>
       <c r="I221" t="s">
         <v>27</v>
       </c>
@@ -9500,7 +10151,10 @@
       <c r="G222" t="s">
         <v>33</v>
       </c>
-      <c r="H222" s="10"/>
+      <c r="H222" s="10">
+        <f>_xlfn.XLOOKUP(G222,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>4600</v>
+      </c>
       <c r="I222" t="s">
         <v>355</v>
       </c>
@@ -9531,7 +10185,10 @@
       <c r="G223" t="s">
         <v>200</v>
       </c>
-      <c r="H223" s="10"/>
+      <c r="H223" s="10">
+        <f>_xlfn.XLOOKUP(G223,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>2000</v>
+      </c>
       <c r="I223" t="s">
         <v>40</v>
       </c>
@@ -9562,7 +10219,10 @@
       <c r="G224" t="s">
         <v>21</v>
       </c>
-      <c r="H224" s="10"/>
+      <c r="H224" s="10">
+        <f>_xlfn.XLOOKUP(G224,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>3600</v>
+      </c>
       <c r="I224" t="s">
         <v>62</v>
       </c>
@@ -9596,7 +10256,10 @@
       <c r="G225" t="s">
         <v>21</v>
       </c>
-      <c r="H225" s="10"/>
+      <c r="H225" s="10">
+        <f>_xlfn.XLOOKUP(G225,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>3600</v>
+      </c>
       <c r="I225" t="s">
         <v>27</v>
       </c>
@@ -9630,7 +10293,10 @@
       <c r="G226" t="s">
         <v>106</v>
       </c>
-      <c r="H226" s="10"/>
+      <c r="H226" s="10">
+        <f>_xlfn.XLOOKUP(G226,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8500</v>
+      </c>
       <c r="I226" t="s">
         <v>40</v>
       </c>
@@ -9664,7 +10330,10 @@
       <c r="G227" t="s">
         <v>33</v>
       </c>
-      <c r="H227" s="10"/>
+      <c r="H227" s="10">
+        <f>_xlfn.XLOOKUP(G227,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>4600</v>
+      </c>
       <c r="I227" t="s">
         <v>62</v>
       </c>
@@ -9698,7 +10367,10 @@
       <c r="G228" t="s">
         <v>14</v>
       </c>
-      <c r="H228" s="10"/>
+      <c r="H228" s="10">
+        <f>_xlfn.XLOOKUP(G228,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>2700</v>
+      </c>
       <c r="I228" t="s">
         <v>15</v>
       </c>
@@ -9729,7 +10401,10 @@
       <c r="G229" t="s">
         <v>134</v>
       </c>
-      <c r="H229" s="10"/>
+      <c r="H229" s="10">
+        <f>_xlfn.XLOOKUP(G229,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>4100</v>
+      </c>
       <c r="I229" t="s">
         <v>15</v>
       </c>
@@ -9763,7 +10438,10 @@
       <c r="G230" t="s">
         <v>59</v>
       </c>
-      <c r="H230" s="10"/>
+      <c r="H230" s="10">
+        <f>_xlfn.XLOOKUP(G230,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>6400</v>
+      </c>
       <c r="I230" t="s">
         <v>224</v>
       </c>
@@ -9797,7 +10475,10 @@
       <c r="G231" t="s">
         <v>26</v>
       </c>
-      <c r="H231" s="10"/>
+      <c r="H231" s="10">
+        <f>_xlfn.XLOOKUP(G231,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8600</v>
+      </c>
       <c r="I231" t="s">
         <v>15</v>
       </c>
@@ -9828,7 +10509,10 @@
       <c r="G232" t="s">
         <v>39</v>
       </c>
-      <c r="H232" s="10"/>
+      <c r="H232" s="10">
+        <f>_xlfn.XLOOKUP(G232,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>7400</v>
+      </c>
       <c r="I232" t="s">
         <v>62</v>
       </c>
@@ -9859,7 +10543,10 @@
       <c r="G233" t="s">
         <v>204</v>
       </c>
-      <c r="H233" s="10"/>
+      <c r="H233" s="10">
+        <f>_xlfn.XLOOKUP(G233,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>6800</v>
+      </c>
       <c r="I233" t="s">
         <v>51</v>
       </c>
@@ -9890,7 +10577,10 @@
       <c r="G234" t="s">
         <v>245</v>
       </c>
-      <c r="H234" s="10"/>
+      <c r="H234" s="10">
+        <f>_xlfn.XLOOKUP(G234,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>2600</v>
+      </c>
       <c r="I234" t="s">
         <v>62</v>
       </c>
@@ -9921,7 +10611,10 @@
       <c r="G235" t="s">
         <v>26</v>
       </c>
-      <c r="H235" s="10"/>
+      <c r="H235" s="10">
+        <f>_xlfn.XLOOKUP(G235,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8600</v>
+      </c>
       <c r="I235" t="s">
         <v>34</v>
       </c>
@@ -9955,7 +10648,10 @@
       <c r="G236" t="s">
         <v>39</v>
       </c>
-      <c r="H236" s="10"/>
+      <c r="H236" s="10">
+        <f>_xlfn.XLOOKUP(G236,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>7400</v>
+      </c>
       <c r="I236" t="s">
         <v>15</v>
       </c>
@@ -9989,7 +10685,10 @@
       <c r="G237" t="s">
         <v>26</v>
       </c>
-      <c r="H237" s="10"/>
+      <c r="H237" s="10">
+        <f>_xlfn.XLOOKUP(G237,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8600</v>
+      </c>
       <c r="I237" t="s">
         <v>62</v>
       </c>
@@ -10020,7 +10719,10 @@
       <c r="G238" t="s">
         <v>95</v>
       </c>
-      <c r="H238" s="10"/>
+      <c r="H238" s="10">
+        <f>_xlfn.XLOOKUP(G238,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>6000</v>
+      </c>
       <c r="I238" t="s">
         <v>15</v>
       </c>
@@ -10054,7 +10756,10 @@
       <c r="G239" t="s">
         <v>192</v>
       </c>
-      <c r="H239" s="10"/>
+      <c r="H239" s="10">
+        <f>_xlfn.XLOOKUP(G239,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>2100</v>
+      </c>
       <c r="I239" t="s">
         <v>27</v>
       </c>
@@ -10088,7 +10793,10 @@
       <c r="G240" t="s">
         <v>26</v>
       </c>
-      <c r="H240" s="10"/>
+      <c r="H240" s="10">
+        <f>_xlfn.XLOOKUP(G240,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8600</v>
+      </c>
       <c r="I240" t="s">
         <v>15</v>
       </c>
@@ -10122,7 +10830,10 @@
       <c r="G241" t="s">
         <v>95</v>
       </c>
-      <c r="H241" s="10"/>
+      <c r="H241" s="10">
+        <f>_xlfn.XLOOKUP(G241,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>6000</v>
+      </c>
       <c r="I241" t="s">
         <v>62</v>
       </c>
@@ -10156,7 +10867,10 @@
       <c r="G242" t="s">
         <v>14</v>
       </c>
-      <c r="H242" s="10"/>
+      <c r="H242" s="10">
+        <f>_xlfn.XLOOKUP(G242,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>2700</v>
+      </c>
       <c r="I242" t="s">
         <v>15</v>
       </c>
@@ -10187,7 +10901,10 @@
       <c r="G243" t="s">
         <v>39</v>
       </c>
-      <c r="H243" s="10"/>
+      <c r="H243" s="10">
+        <f>_xlfn.XLOOKUP(G243,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>7400</v>
+      </c>
       <c r="I243" t="s">
         <v>15</v>
       </c>
@@ -10218,7 +10935,10 @@
       <c r="G244" t="s">
         <v>39</v>
       </c>
-      <c r="H244" s="10"/>
+      <c r="H244" s="10">
+        <f>_xlfn.XLOOKUP(G244,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>7400</v>
+      </c>
       <c r="I244" t="s">
         <v>62</v>
       </c>
@@ -10249,7 +10969,10 @@
       <c r="G245" t="s">
         <v>45</v>
       </c>
-      <c r="H245" s="10"/>
+      <c r="H245" s="10">
+        <f>_xlfn.XLOOKUP(G245,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8100</v>
+      </c>
       <c r="I245" t="s">
         <v>27</v>
       </c>
@@ -10280,7 +11003,10 @@
       <c r="G246" t="s">
         <v>78</v>
       </c>
-      <c r="H246" s="10"/>
+      <c r="H246" s="10">
+        <f>_xlfn.XLOOKUP(G246,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>5800</v>
+      </c>
       <c r="I246" t="s">
         <v>62</v>
       </c>
@@ -10311,7 +11037,10 @@
       <c r="G247" t="s">
         <v>235</v>
       </c>
-      <c r="H247" s="10"/>
+      <c r="H247" s="10">
+        <f>_xlfn.XLOOKUP(G247,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>3500</v>
+      </c>
       <c r="I247" t="s">
         <v>34</v>
       </c>
@@ -10342,7 +11071,10 @@
       <c r="G248" t="s">
         <v>26</v>
       </c>
-      <c r="H248" s="10"/>
+      <c r="H248" s="10">
+        <f>_xlfn.XLOOKUP(G248,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8600</v>
+      </c>
       <c r="I248" t="s">
         <v>27</v>
       </c>
@@ -10373,7 +11105,10 @@
       <c r="G249" t="s">
         <v>67</v>
       </c>
-      <c r="H249" s="10"/>
+      <c r="H249" s="10">
+        <f>_xlfn.XLOOKUP(G249,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>2500</v>
+      </c>
       <c r="I249" t="s">
         <v>15</v>
       </c>
@@ -10404,7 +11139,10 @@
       <c r="G250" t="s">
         <v>106</v>
       </c>
-      <c r="H250" s="10"/>
+      <c r="H250" s="10">
+        <f>_xlfn.XLOOKUP(G250,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8500</v>
+      </c>
       <c r="I250" t="s">
         <v>62</v>
       </c>
@@ -10435,7 +11173,10 @@
       <c r="G251" t="s">
         <v>134</v>
       </c>
-      <c r="H251" s="10"/>
+      <c r="H251" s="10">
+        <f>_xlfn.XLOOKUP(G251,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>4100</v>
+      </c>
       <c r="I251" t="s">
         <v>27</v>
       </c>
@@ -10469,7 +11210,10 @@
       <c r="G252" t="s">
         <v>106</v>
       </c>
-      <c r="H252" s="10"/>
+      <c r="H252" s="10">
+        <f>_xlfn.XLOOKUP(G252,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8500</v>
+      </c>
       <c r="I252" t="s">
         <v>27</v>
       </c>
@@ -10500,7 +11244,10 @@
       <c r="G253" t="s">
         <v>26</v>
       </c>
-      <c r="H253" s="10"/>
+      <c r="H253" s="10">
+        <f>_xlfn.XLOOKUP(G253,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8600</v>
+      </c>
       <c r="I253" t="s">
         <v>62</v>
       </c>
@@ -10534,7 +11281,10 @@
       <c r="G254" t="s">
         <v>33</v>
       </c>
-      <c r="H254" s="10"/>
+      <c r="H254" s="10">
+        <f>_xlfn.XLOOKUP(G254,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>4600</v>
+      </c>
       <c r="I254" t="s">
         <v>34</v>
       </c>
@@ -10568,7 +11318,10 @@
       <c r="G255" t="s">
         <v>106</v>
       </c>
-      <c r="H255" s="10"/>
+      <c r="H255" s="10">
+        <f>_xlfn.XLOOKUP(G255,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8500</v>
+      </c>
       <c r="I255" t="s">
         <v>15</v>
       </c>
@@ -10602,7 +11355,10 @@
       <c r="G256" t="s">
         <v>110</v>
       </c>
-      <c r="H256" s="10"/>
+      <c r="H256" s="10">
+        <f>_xlfn.XLOOKUP(G256,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>2400</v>
+      </c>
       <c r="I256" t="s">
         <v>27</v>
       </c>
@@ -10633,7 +11389,10 @@
       <c r="G257" t="s">
         <v>21</v>
       </c>
-      <c r="H257" s="10"/>
+      <c r="H257" s="10">
+        <f>_xlfn.XLOOKUP(G257,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>3600</v>
+      </c>
       <c r="I257" t="s">
         <v>62</v>
       </c>
@@ -10664,7 +11423,10 @@
       <c r="G258" t="s">
         <v>110</v>
       </c>
-      <c r="H258" s="10"/>
+      <c r="H258" s="10">
+        <f>_xlfn.XLOOKUP(G258,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>2400</v>
+      </c>
       <c r="I258" t="s">
         <v>34</v>
       </c>
@@ -10695,7 +11457,10 @@
       <c r="G259" t="s">
         <v>26</v>
       </c>
-      <c r="H259" s="10"/>
+      <c r="H259" s="10">
+        <f>_xlfn.XLOOKUP(G259,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8600</v>
+      </c>
       <c r="I259" t="s">
         <v>27</v>
       </c>
@@ -10726,7 +11491,10 @@
       <c r="G260" t="s">
         <v>26</v>
       </c>
-      <c r="H260" s="10"/>
+      <c r="H260" s="10">
+        <f>_xlfn.XLOOKUP(G260,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8600</v>
+      </c>
       <c r="I260" t="s">
         <v>15</v>
       </c>
@@ -10757,7 +11525,10 @@
       <c r="G261" t="s">
         <v>14</v>
       </c>
-      <c r="H261" s="10"/>
+      <c r="H261" s="10">
+        <f>_xlfn.XLOOKUP(G261,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>2700</v>
+      </c>
       <c r="I261" t="s">
         <v>62</v>
       </c>
@@ -10791,7 +11562,10 @@
       <c r="G262" t="s">
         <v>200</v>
       </c>
-      <c r="H262" s="10"/>
+      <c r="H262" s="10">
+        <f>_xlfn.XLOOKUP(G262,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>2000</v>
+      </c>
       <c r="I262" t="s">
         <v>62</v>
       </c>
@@ -10822,7 +11596,10 @@
       <c r="G263" t="s">
         <v>21</v>
       </c>
-      <c r="H263" s="10"/>
+      <c r="H263" s="10">
+        <f>_xlfn.XLOOKUP(G263,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>3600</v>
+      </c>
       <c r="I263" t="s">
         <v>15</v>
       </c>
@@ -10856,7 +11633,10 @@
       <c r="G264" t="s">
         <v>14</v>
       </c>
-      <c r="H264" s="10"/>
+      <c r="H264" s="10">
+        <f>_xlfn.XLOOKUP(G264,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>2700</v>
+      </c>
       <c r="I264" t="s">
         <v>27</v>
       </c>
@@ -10887,7 +11667,10 @@
       <c r="G265" t="s">
         <v>110</v>
       </c>
-      <c r="H265" s="10"/>
+      <c r="H265" s="10">
+        <f>_xlfn.XLOOKUP(G265,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>2400</v>
+      </c>
       <c r="I265" t="s">
         <v>27</v>
       </c>
@@ -10918,7 +11701,10 @@
       <c r="G266" t="s">
         <v>26</v>
       </c>
-      <c r="H266" s="10"/>
+      <c r="H266" s="10">
+        <f>_xlfn.XLOOKUP(G266,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8600</v>
+      </c>
       <c r="I266" t="s">
         <v>15</v>
       </c>
@@ -10949,7 +11735,10 @@
       <c r="G267" t="s">
         <v>26</v>
       </c>
-      <c r="H267" s="10"/>
+      <c r="H267" s="10">
+        <f>_xlfn.XLOOKUP(G267,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8600</v>
+      </c>
       <c r="I267" t="s">
         <v>15</v>
       </c>
@@ -10983,7 +11772,10 @@
       <c r="G268" t="s">
         <v>200</v>
       </c>
-      <c r="H268" s="10"/>
+      <c r="H268" s="10">
+        <f>_xlfn.XLOOKUP(G268,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>2000</v>
+      </c>
       <c r="I268" t="s">
         <v>15</v>
       </c>
@@ -11017,7 +11809,10 @@
       <c r="G269" t="s">
         <v>14</v>
       </c>
-      <c r="H269" s="10"/>
+      <c r="H269" s="10">
+        <f>_xlfn.XLOOKUP(G269,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>2700</v>
+      </c>
       <c r="I269" t="s">
         <v>15</v>
       </c>
@@ -11051,7 +11846,10 @@
       <c r="G270" t="s">
         <v>39</v>
       </c>
-      <c r="H270" s="10"/>
+      <c r="H270" s="10">
+        <f>_xlfn.XLOOKUP(G270,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>7400</v>
+      </c>
       <c r="I270" t="s">
         <v>15</v>
       </c>
@@ -11082,7 +11880,10 @@
       <c r="G271" t="s">
         <v>82</v>
       </c>
-      <c r="H271" s="10"/>
+      <c r="H271" s="10">
+        <f>_xlfn.XLOOKUP(G271,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>4900</v>
+      </c>
       <c r="I271" t="s">
         <v>15</v>
       </c>
@@ -11113,7 +11914,10 @@
       <c r="G272" t="s">
         <v>106</v>
       </c>
-      <c r="H272" s="10"/>
+      <c r="H272" s="10">
+        <f>_xlfn.XLOOKUP(G272,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8500</v>
+      </c>
       <c r="I272" t="s">
         <v>62</v>
       </c>
@@ -11144,7 +11948,10 @@
       <c r="G273" t="s">
         <v>235</v>
       </c>
-      <c r="H273" s="10"/>
+      <c r="H273" s="10">
+        <f>_xlfn.XLOOKUP(G273,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>3500</v>
+      </c>
       <c r="I273" t="s">
         <v>62</v>
       </c>
@@ -11175,7 +11982,10 @@
       <c r="G274" t="s">
         <v>78</v>
       </c>
-      <c r="H274" s="10"/>
+      <c r="H274" s="10">
+        <f>_xlfn.XLOOKUP(G274,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>5800</v>
+      </c>
       <c r="I274" t="s">
         <v>27</v>
       </c>
@@ -11206,7 +12016,10 @@
       <c r="G275" t="s">
         <v>14</v>
       </c>
-      <c r="H275" s="10"/>
+      <c r="H275" s="10">
+        <f>_xlfn.XLOOKUP(G275,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>2700</v>
+      </c>
       <c r="I275" t="s">
         <v>62</v>
       </c>
@@ -11237,7 +12050,10 @@
       <c r="G276" t="s">
         <v>82</v>
       </c>
-      <c r="H276" s="10"/>
+      <c r="H276" s="10">
+        <f>_xlfn.XLOOKUP(G276,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>4900</v>
+      </c>
       <c r="I276" t="s">
         <v>15</v>
       </c>
@@ -11268,7 +12084,10 @@
       <c r="G277" t="s">
         <v>235</v>
       </c>
-      <c r="H277" s="10"/>
+      <c r="H277" s="10">
+        <f>_xlfn.XLOOKUP(G277,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>3500</v>
+      </c>
       <c r="I277" t="s">
         <v>62</v>
       </c>
@@ -11299,7 +12118,10 @@
       <c r="G278" t="s">
         <v>78</v>
       </c>
-      <c r="H278" s="10"/>
+      <c r="H278" s="10">
+        <f>_xlfn.XLOOKUP(G278,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>5800</v>
+      </c>
       <c r="I278" t="s">
         <v>15</v>
       </c>
@@ -11330,7 +12152,10 @@
       <c r="G279" t="s">
         <v>78</v>
       </c>
-      <c r="H279" s="10"/>
+      <c r="H279" s="10">
+        <f>_xlfn.XLOOKUP(G279,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>5800</v>
+      </c>
       <c r="I279" t="s">
         <v>27</v>
       </c>
@@ -11364,7 +12189,10 @@
       <c r="G280" t="s">
         <v>110</v>
       </c>
-      <c r="H280" s="10"/>
+      <c r="H280" s="10">
+        <f>_xlfn.XLOOKUP(G280,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>2400</v>
+      </c>
       <c r="I280" t="s">
         <v>27</v>
       </c>
@@ -11395,7 +12223,10 @@
       <c r="G281" t="s">
         <v>95</v>
       </c>
-      <c r="H281" s="10"/>
+      <c r="H281" s="10">
+        <f>_xlfn.XLOOKUP(G281,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>6000</v>
+      </c>
       <c r="I281" t="s">
         <v>27</v>
       </c>
@@ -11426,7 +12257,10 @@
       <c r="G282" t="s">
         <v>235</v>
       </c>
-      <c r="H282" s="10"/>
+      <c r="H282" s="10">
+        <f>_xlfn.XLOOKUP(G282,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>3500</v>
+      </c>
       <c r="I282" t="s">
         <v>27</v>
       </c>
@@ -11460,7 +12294,10 @@
       <c r="G283" t="s">
         <v>39</v>
       </c>
-      <c r="H283" s="10"/>
+      <c r="H283" s="10">
+        <f>_xlfn.XLOOKUP(G283,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>7400</v>
+      </c>
       <c r="I283" t="s">
         <v>62</v>
       </c>
@@ -11494,7 +12331,10 @@
       <c r="G284" t="s">
         <v>110</v>
       </c>
-      <c r="H284" s="10"/>
+      <c r="H284" s="10">
+        <f>_xlfn.XLOOKUP(G284,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>2400</v>
+      </c>
       <c r="I284" t="s">
         <v>62</v>
       </c>
@@ -11525,7 +12365,10 @@
       <c r="G285" t="s">
         <v>21</v>
       </c>
-      <c r="H285" s="10"/>
+      <c r="H285" s="10">
+        <f>_xlfn.XLOOKUP(G285,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>3600</v>
+      </c>
       <c r="I285" t="s">
         <v>27</v>
       </c>
@@ -11559,7 +12402,10 @@
       <c r="G286" t="s">
         <v>39</v>
       </c>
-      <c r="H286" s="10"/>
+      <c r="H286" s="10">
+        <f>_xlfn.XLOOKUP(G286,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>7400</v>
+      </c>
       <c r="I286" t="s">
         <v>15</v>
       </c>
@@ -11590,7 +12436,10 @@
       <c r="G287" t="s">
         <v>39</v>
       </c>
-      <c r="H287" s="10"/>
+      <c r="H287" s="10">
+        <f>_xlfn.XLOOKUP(G287,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>7400</v>
+      </c>
       <c r="I287" t="s">
         <v>62</v>
       </c>
@@ -11621,7 +12470,10 @@
       <c r="G288" t="s">
         <v>26</v>
       </c>
-      <c r="H288" s="10"/>
+      <c r="H288" s="10">
+        <f>_xlfn.XLOOKUP(G288,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>8600</v>
+      </c>
       <c r="I288" t="s">
         <v>62</v>
       </c>
@@ -11652,7 +12504,10 @@
       <c r="G289" t="s">
         <v>78</v>
       </c>
-      <c r="H289" s="10"/>
+      <c r="H289" s="10">
+        <f>_xlfn.XLOOKUP(G289,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>5800</v>
+      </c>
       <c r="I289" t="s">
         <v>62</v>
       </c>
@@ -11683,7 +12538,10 @@
       <c r="G290" t="s">
         <v>78</v>
       </c>
-      <c r="H290" s="10"/>
+      <c r="H290" s="10">
+        <f>_xlfn.XLOOKUP(G290,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>5800</v>
+      </c>
       <c r="I290" t="s">
         <v>15</v>
       </c>
@@ -11714,7 +12572,10 @@
       <c r="G291" t="s">
         <v>33</v>
       </c>
-      <c r="H291" s="10"/>
+      <c r="H291" s="10">
+        <f>_xlfn.XLOOKUP(G291,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>4600</v>
+      </c>
       <c r="I291" t="s">
         <v>40</v>
       </c>
@@ -11745,7 +12606,10 @@
       <c r="G292" t="s">
         <v>200</v>
       </c>
-      <c r="H292" s="10"/>
+      <c r="H292" s="10">
+        <f>_xlfn.XLOOKUP(G292,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>2000</v>
+      </c>
       <c r="I292" t="s">
         <v>15</v>
       </c>
@@ -11776,7 +12640,10 @@
       <c r="G293" t="s">
         <v>192</v>
       </c>
-      <c r="H293" s="10"/>
+      <c r="H293" s="10">
+        <f>_xlfn.XLOOKUP(G293,Fees!$A$2:$A$24,Fees!$B$2:$B$24,0)</f>
+        <v>2100</v>
+      </c>
       <c r="I293" t="s">
         <v>15</v>
       </c>
@@ -12031,8 +12898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE936873-5F4C-4663-B23F-ACF648638393}">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12063,7 +12930,10 @@
       <c r="B2">
         <v>86</v>
       </c>
-      <c r="C2" s="9"/>
+      <c r="C2" s="9" t="str">
+        <f>_xlfn.XLOOKUP(B2,$F$4:$F$8,$G$4:$G$8,"F",-1 )</f>
+        <v>B</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
@@ -12072,7 +12942,10 @@
       <c r="B3">
         <v>97</v>
       </c>
-      <c r="C3" s="9"/>
+      <c r="C3" s="9" t="str">
+        <f t="shared" ref="C3:C39" si="0">_xlfn.XLOOKUP(B3,$F$4:$F$8,$G$4:$G$8,"F",-1 )</f>
+        <v>A</v>
+      </c>
       <c r="F3" s="6" t="s">
         <v>652</v>
       </c>
@@ -12087,7 +12960,10 @@
       <c r="B4">
         <v>90</v>
       </c>
-      <c r="C4" s="9"/>
+      <c r="C4" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
       <c r="F4">
         <v>50</v>
       </c>
@@ -12102,7 +12978,10 @@
       <c r="B5">
         <v>79</v>
       </c>
-      <c r="C5" s="9"/>
+      <c r="C5" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
       <c r="F5">
         <v>60</v>
       </c>
@@ -12117,7 +12996,10 @@
       <c r="B6">
         <v>97</v>
       </c>
-      <c r="C6" s="9"/>
+      <c r="C6" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
       <c r="F6">
         <v>70</v>
       </c>
@@ -12132,7 +13014,10 @@
       <c r="B7">
         <v>95</v>
       </c>
-      <c r="C7" s="9"/>
+      <c r="C7" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
       <c r="F7">
         <v>80</v>
       </c>
@@ -12149,7 +13034,10 @@
       <c r="B8">
         <v>90</v>
       </c>
-      <c r="C8" s="9"/>
+      <c r="C8" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
       <c r="F8">
         <v>90</v>
       </c>
@@ -12164,7 +13052,10 @@
       <c r="B9">
         <v>77</v>
       </c>
-      <c r="C9" s="9"/>
+      <c r="C9" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
@@ -12173,7 +13064,10 @@
       <c r="B10">
         <v>75</v>
       </c>
-      <c r="C10" s="9"/>
+      <c r="C10" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
@@ -12182,7 +13076,10 @@
       <c r="B11">
         <v>100</v>
       </c>
-      <c r="C11" s="9"/>
+      <c r="C11" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
@@ -12191,7 +13088,10 @@
       <c r="B12">
         <v>81</v>
       </c>
-      <c r="C12" s="9"/>
+      <c r="C12" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
@@ -12200,7 +13100,10 @@
       <c r="B13">
         <v>99</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
@@ -12209,7 +13112,10 @@
       <c r="B14">
         <v>86</v>
       </c>
-      <c r="C14" s="9"/>
+      <c r="C14" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
@@ -12218,7 +13124,10 @@
       <c r="B15">
         <v>84</v>
       </c>
-      <c r="C15" s="9"/>
+      <c r="C15" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
@@ -12227,7 +13136,10 @@
       <c r="B16">
         <v>84</v>
       </c>
-      <c r="C16" s="9"/>
+      <c r="C16" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
@@ -12236,7 +13148,10 @@
       <c r="B17">
         <v>89</v>
       </c>
-      <c r="C17" s="9"/>
+      <c r="C17" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
@@ -12245,7 +13160,10 @@
       <c r="B18">
         <v>51</v>
       </c>
-      <c r="C18" s="9"/>
+      <c r="C18" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
@@ -12254,7 +13172,10 @@
       <c r="B19">
         <v>58</v>
       </c>
-      <c r="C19" s="9"/>
+      <c r="C19" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
@@ -12263,7 +13184,10 @@
       <c r="B20">
         <v>95</v>
       </c>
-      <c r="C20" s="9"/>
+      <c r="C20" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
@@ -12272,7 +13196,10 @@
       <c r="B21">
         <v>62</v>
       </c>
-      <c r="C21" s="9"/>
+      <c r="C21" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>D</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
@@ -12281,7 +13208,10 @@
       <c r="B22">
         <v>69</v>
       </c>
-      <c r="C22" s="9"/>
+      <c r="C22" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>D</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
@@ -12290,7 +13220,10 @@
       <c r="B23">
         <v>83</v>
       </c>
-      <c r="C23" s="9"/>
+      <c r="C23" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
@@ -12299,7 +13232,10 @@
       <c r="B24">
         <v>94</v>
       </c>
-      <c r="C24" s="9"/>
+      <c r="C24" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
@@ -12308,7 +13244,10 @@
       <c r="B25">
         <v>92</v>
       </c>
-      <c r="C25" s="9"/>
+      <c r="C25" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
@@ -12317,7 +13256,10 @@
       <c r="B26">
         <v>85</v>
       </c>
-      <c r="C26" s="9"/>
+      <c r="C26" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
@@ -12326,7 +13268,10 @@
       <c r="B27">
         <v>78</v>
       </c>
-      <c r="C27" s="9"/>
+      <c r="C27" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
@@ -12335,7 +13280,10 @@
       <c r="B28">
         <v>56</v>
       </c>
-      <c r="C28" s="9"/>
+      <c r="C28" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
@@ -12344,7 +13292,10 @@
       <c r="B29">
         <v>98</v>
       </c>
-      <c r="C29" s="9"/>
+      <c r="C29" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
@@ -12353,7 +13304,10 @@
       <c r="B30">
         <v>78</v>
       </c>
-      <c r="C30" s="9"/>
+      <c r="C30" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
@@ -12362,7 +13316,10 @@
       <c r="B31">
         <v>59</v>
       </c>
-      <c r="C31" s="9"/>
+      <c r="C31" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
@@ -12371,7 +13328,10 @@
       <c r="B32">
         <v>62</v>
       </c>
-      <c r="C32" s="9"/>
+      <c r="C32" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>D</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
@@ -12380,7 +13340,10 @@
       <c r="B33">
         <v>89</v>
       </c>
-      <c r="C33" s="9"/>
+      <c r="C33" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
@@ -12389,7 +13352,10 @@
       <c r="B34">
         <v>93</v>
       </c>
-      <c r="C34" s="9"/>
+      <c r="C34" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
@@ -12398,7 +13364,10 @@
       <c r="B35">
         <v>98</v>
       </c>
-      <c r="C35" s="9"/>
+      <c r="C35" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
@@ -12407,7 +13376,10 @@
       <c r="B36">
         <v>91</v>
       </c>
-      <c r="C36" s="9"/>
+      <c r="C36" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
@@ -12416,7 +13388,10 @@
       <c r="B37">
         <v>82</v>
       </c>
-      <c r="C37" s="9"/>
+      <c r="C37" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
@@ -12425,7 +13400,10 @@
       <c r="B38">
         <v>99</v>
       </c>
-      <c r="C38" s="9"/>
+      <c r="C38" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
@@ -12434,7 +13412,10 @@
       <c r="B39">
         <v>90</v>
       </c>
-      <c r="C39" s="9"/>
+      <c r="C39" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
